--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1587"/>
+  <dimension ref="A1:H1568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45767,10 +45767,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45797,10 +45795,8 @@
       </c>
       <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45831,10 +45827,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45865,10 +45859,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45895,10 +45887,8 @@
       </c>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45925,10 +45915,8 @@
       </c>
       <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1391">
@@ -45955,10 +45943,8 @@
       </c>
       <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45981,10 +45967,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -46015,10 +45999,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -46049,10 +46031,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -46071,10 +46051,8 @@
       <c r="E1395" t="inlineStr"/>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -46097,10 +46075,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -46127,10 +46103,8 @@
           <t>-27.2%</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -46157,10 +46131,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -46179,10 +46151,8 @@
       <c r="E1399" t="inlineStr"/>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -46209,10 +46179,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -46239,10 +46207,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -46287,10 +46253,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -46321,10 +46285,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -46355,10 +46317,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -46385,10 +46345,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -46415,10 +46373,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -46445,10 +46401,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -46479,10 +46433,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1410">
@@ -46513,10 +46465,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1411">
@@ -46547,10 +46497,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1412">
@@ -46581,10 +46529,8 @@
           <t>50.0K</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46615,10 +46561,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46649,10 +46593,8 @@
           <t>-5K</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46683,10 +46625,8 @@
           <t>20K</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46713,10 +46653,8 @@
       </c>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -46743,10 +46681,8 @@
       </c>
       <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46773,10 +46709,8 @@
       </c>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46807,10 +46741,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1420">
@@ -46841,10 +46773,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1421">
@@ -46875,10 +46805,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46901,10 +46829,8 @@
       <c r="E1422" t="inlineStr"/>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46935,10 +46861,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46969,10 +46893,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -47003,10 +46925,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1426">
@@ -47037,10 +46957,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1427">
@@ -47071,10 +46989,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1428">
@@ -47105,10 +47021,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -47139,10 +47053,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -47173,10 +47085,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -47203,10 +47113,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -47233,10 +47141,8 @@
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -47263,10 +47169,8 @@
       </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -47293,10 +47197,8 @@
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -47315,10 +47217,8 @@
       <c r="E1435" t="inlineStr"/>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -47363,10 +47263,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -47397,10 +47295,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -47431,10 +47327,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -47465,10 +47359,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -47499,10 +47391,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -47533,10 +47423,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -47567,10 +47455,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -47597,10 +47483,8 @@
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr"/>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -47631,10 +47515,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -47661,10 +47543,8 @@
       </c>
       <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr"/>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -47691,10 +47571,8 @@
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -47721,10 +47599,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -47751,10 +47627,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -47781,10 +47655,8 @@
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1451">
@@ -47811,10 +47683,8 @@
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
@@ -47841,10 +47711,8 @@
       </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1453">
@@ -47871,10 +47739,8 @@
       </c>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -47901,10 +47767,8 @@
       </c>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1455">
@@ -47935,10 +47799,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1456">
@@ -47969,10 +47831,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1457">
@@ -48003,10 +47863,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1458">
@@ -48037,10 +47895,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -48067,10 +47923,8 @@
       </c>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1460">
@@ -48097,10 +47951,8 @@
       </c>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr"/>
-      <c r="H1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -48127,10 +47979,8 @@
       </c>
       <c r="F1461" t="inlineStr"/>
       <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -48175,10 +48025,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -48209,10 +48057,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1464" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1465">
@@ -48239,10 +48085,8 @@
       </c>
       <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1465" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1466">
@@ -48273,10 +48117,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1467">
@@ -48307,10 +48149,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -48341,10 +48181,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1468" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1468" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1469">
@@ -48375,10 +48213,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1469" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -48401,10 +48237,8 @@
       <c r="E1470" t="inlineStr"/>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1471">
@@ -48435,10 +48269,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -48461,10 +48293,8 @@
       <c r="E1472" t="inlineStr"/>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1473">
@@ -48491,10 +48321,8 @@
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -48521,10 +48349,8 @@
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1475">
@@ -48551,10 +48377,8 @@
       </c>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1476">
@@ -48585,10 +48409,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1477">
@@ -48619,10 +48441,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1478">
@@ -48653,10 +48473,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1479">
@@ -48687,10 +48505,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -48717,10 +48533,8 @@
       </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1481">
@@ -48747,10 +48561,8 @@
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1482">
@@ -48777,10 +48589,8 @@
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1483">
@@ -48811,10 +48621,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1483" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1484">
@@ -48845,10 +48653,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1484" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1485">
@@ -48879,10 +48685,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1486">
@@ -48905,10 +48709,8 @@
       <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1487">
@@ -48935,10 +48737,8 @@
       </c>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1488">
@@ -48961,10 +48761,8 @@
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -48987,10 +48785,8 @@
       <c r="E1489" t="inlineStr"/>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1490">
@@ -49017,10 +48813,8 @@
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr"/>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1491">
@@ -49051,10 +48845,8 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1491" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1492">
@@ -49085,10 +48877,8 @@
           <t>47.5%</t>
         </is>
       </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1492" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1493">
@@ -49119,10 +48909,8 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1494">
@@ -49153,10 +48941,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1494" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1495">
@@ -49187,10 +48973,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1495" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1496">
@@ -49217,10 +49001,8 @@
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -49251,10 +49033,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -49285,10 +49065,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1499">
@@ -49319,10 +49097,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1500">
@@ -49353,10 +49129,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1501">
@@ -49387,10 +49161,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1502">
@@ -49421,10 +49193,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1503">
@@ -49447,10 +49217,8 @@
       <c r="E1503" t="inlineStr"/>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -49481,10 +49249,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -49511,10 +49277,8 @@
       </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1506">
@@ -49541,10 +49305,8 @@
       </c>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1507">
@@ -49567,10 +49329,8 @@
       <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -49601,10 +49361,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1509">
@@ -49631,10 +49389,8 @@
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1510">
@@ -49657,10 +49413,8 @@
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1511">
@@ -49687,10 +49441,8 @@
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1512">
@@ -49713,10 +49465,8 @@
       <c r="E1512" t="inlineStr"/>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1513">
@@ -49739,10 +49489,8 @@
       <c r="E1513" t="inlineStr"/>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr"/>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1514">
@@ -49765,10 +49513,8 @@
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -49791,10 +49537,8 @@
       <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1516">
@@ -49817,10 +49561,8 @@
       <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1517">
@@ -49843,10 +49585,8 @@
       <c r="E1517" t="inlineStr"/>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1518">
@@ -49873,10 +49613,8 @@
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1519">
@@ -49903,10 +49641,8 @@
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1520">
@@ -49933,10 +49669,8 @@
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1521">
@@ -49963,10 +49697,8 @@
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -49993,10 +49725,8 @@
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1523">
@@ -50023,10 +49753,8 @@
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -50053,10 +49781,8 @@
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1525">
@@ -50079,10 +49805,8 @@
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1526">
@@ -50109,84 +49833,106 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr"/>
-      <c r="C1527" t="inlineStr"/>
+          <t>01:45 PM</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
+        </is>
+      </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>41.9</t>
+        </is>
+      </c>
       <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr"/>
+      <c r="G1527" t="inlineStr">
+        <is>
+          <t>42.2</t>
+        </is>
+      </c>
+      <c r="H1527" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
       <c r="H1529" t="inlineStr">
         <is>
           <t>3</t>
@@ -50196,63 +49942,63 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
@@ -50264,97 +50010,97 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
@@ -50366,75 +50112,75 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
@@ -50444,19 +50190,19 @@
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1537" t="inlineStr">
@@ -50468,133 +50214,125 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
           <t>3</t>
@@ -50604,91 +50342,99 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1544" t="inlineStr">
         <is>
           <t>3</t>
@@ -50698,29 +50444,29 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1545" t="inlineStr">
@@ -50732,29 +50478,29 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1546" t="inlineStr">
@@ -50766,199 +50512,199 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
@@ -50970,369 +50716,353 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F1553" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1554" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F1555" t="inlineStr"/>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1556" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1557" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1557" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
+      <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G1561" t="inlineStr"/>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr"/>
+      <c r="C1562" t="inlineStr"/>
       <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E1562" t="inlineStr"/>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="H1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1562" t="inlineStr"/>
+      <c r="H1562" t="inlineStr"/>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>91.4</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1563" t="inlineStr">
@@ -51344,55 +51074,55 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
+      <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr"/>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>109.1</t>
+        </is>
+      </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
@@ -51404,31 +51134,27 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1566" t="inlineStr"/>
       <c r="H1566" t="inlineStr">
         <is>
           <t>3</t>
@@ -51438,31 +51164,23 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1567" t="inlineStr"/>
       <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1567" t="inlineStr"/>
       <c r="H1567" t="inlineStr">
         <is>
           <t>3</t>
@@ -51472,662 +51190,24 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1568" t="inlineStr"/>
       <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1568" t="inlineStr"/>
       <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr">
-        <is>
-          <t>New Housing Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H1569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr">
-        <is>
-          <t>New Housing Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="H1572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H1573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1574" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="H1574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1575" t="inlineStr">
-        <is>
-          <t>Existing Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="H1575" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1576" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>-3.0%</t>
-        </is>
-      </c>
-      <c r="H1576" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1577" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1577" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="H1577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1578" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1578" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1579" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="H1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1580" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1580" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="H1580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1581" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1582" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="H1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1583" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="H1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1584" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
-      <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
-      <c r="H1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1585" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="D1585" t="inlineStr"/>
-      <c r="E1585" t="inlineStr"/>
-      <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
-      <c r="H1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1586" t="inlineStr"/>
-      <c r="C1586" t="inlineStr"/>
-      <c r="D1586" t="inlineStr"/>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr"/>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C1587" t="inlineStr">
-        <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1587" t="inlineStr"/>
-      <c r="E1587" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr"/>
-      <c r="G1587" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="H1587" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -42055,10 +42055,8 @@
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -42097,10 +42095,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -42139,10 +42135,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -42173,10 +42167,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -42215,10 +42207,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1284">
@@ -42257,10 +42247,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1285">
@@ -42299,10 +42287,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1286">
@@ -42333,10 +42319,8 @@
       </c>
       <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1287">
@@ -42367,10 +42351,8 @@
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -42409,10 +42391,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42451,10 +42431,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -42485,10 +42463,8 @@
       </c>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1291">
@@ -42519,10 +42495,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42553,10 +42527,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42595,10 +42567,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42637,10 +42607,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1295">
@@ -42679,10 +42647,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42721,10 +42687,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42763,10 +42727,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1298">
@@ -42805,10 +42767,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1299">
@@ -42847,10 +42807,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1300">
@@ -42889,10 +42847,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1301">
@@ -42927,10 +42883,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1302">
@@ -42969,10 +42923,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1303">
@@ -43011,10 +42963,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -43049,10 +42999,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -43091,10 +43039,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -43133,10 +43079,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -43175,10 +43119,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -43217,10 +43159,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -43259,10 +43199,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1310">
@@ -43301,10 +43239,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -43343,10 +43279,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -43369,10 +43303,8 @@
       <c r="E1312" t="inlineStr"/>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -43403,10 +43335,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -43437,10 +43367,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -43471,10 +43399,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -43513,10 +43439,8 @@
           <t>€7.8B</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -43555,10 +43479,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1318">
@@ -43589,10 +43511,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43631,10 +43551,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43657,10 +43575,8 @@
       <c r="E1320" t="inlineStr"/>
       <c r="F1320" t="inlineStr"/>
       <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43695,10 +43611,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43737,10 +43651,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1323">
@@ -43779,10 +43691,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1324">
@@ -43821,10 +43731,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43863,10 +43771,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43905,10 +43811,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1327">
@@ -43947,10 +43851,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1328">
@@ -43989,10 +43891,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1329">
@@ -44031,10 +43931,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -44069,10 +43967,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -44111,10 +44007,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -44149,10 +44043,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -44183,10 +44075,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -44217,10 +44107,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -44251,10 +44139,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -44285,10 +44171,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -44319,10 +44203,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -44361,10 +44243,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -44399,10 +44279,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -44441,10 +44319,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1341">
@@ -44483,10 +44359,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1342">
@@ -44525,10 +44399,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -44563,10 +44435,8 @@
         </is>
       </c>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -44597,10 +44467,8 @@
       </c>
       <c r="F1344" t="inlineStr"/>
       <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -44631,10 +44499,8 @@
       </c>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
@@ -44669,10 +44535,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -44707,10 +44571,8 @@
           <t>-11.5%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -44741,10 +44603,8 @@
       </c>
       <c r="F1348" t="inlineStr"/>
       <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -44775,10 +44635,8 @@
       </c>
       <c r="F1349" t="inlineStr"/>
       <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1350">
@@ -44801,10 +44659,8 @@
       <c r="E1350" t="inlineStr"/>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44873,12 +44729,12 @@
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>756.7B</t>
+          <t>¥756.7B</t>
         </is>
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>-332.3B</t>
+          <t>¥-332.3B</t>
         </is>
       </c>
       <c r="F1353" t="inlineStr"/>
@@ -49700,7 +49556,11 @@
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>¥756.7B</t>
+        </is>
+      </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr"/>
       <c r="H1501" t="inlineStr">
@@ -49760,7 +49620,11 @@
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>¥313.3B</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
@@ -50956,7 +50820,11 @@
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr"/>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>-1.961M</t>
+        </is>
+      </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
@@ -51012,7 +50880,11 @@
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>-1.304M</t>
+        </is>
+      </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
@@ -51038,7 +50910,11 @@
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>0.765M</t>
+        </is>
+      </c>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
@@ -51064,7 +50940,11 @@
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr"/>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>-0.021M</t>
+        </is>
+      </c>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
@@ -51090,7 +50970,11 @@
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>3.077M</t>
+        </is>
+      </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr"/>
       <c r="H1546" t="inlineStr">
@@ -51116,7 +51000,11 @@
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>0.397M</t>
+        </is>
+      </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr"/>
       <c r="H1547" t="inlineStr">
@@ -51142,7 +51030,11 @@
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>0.646M</t>
+        </is>
+      </c>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1625"/>
+  <dimension ref="A1:H1628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45477,7 +45477,11 @@
           <t>Current AccountNOV</t>
         </is>
       </c>
-      <c r="D1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>€34.6B</t>
+        </is>
+      </c>
       <c r="E1372" t="inlineStr">
         <is>
           <t>€32B</t>
@@ -45511,10 +45515,14 @@
           <t>Current Account s.aNOV</t>
         </is>
       </c>
-      <c r="D1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>€27B</t>
+        </is>
+      </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>€25.8B</t>
         </is>
       </c>
       <c r="F1373" t="inlineStr">
@@ -45532,29 +45540,33 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr"/>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
-        </is>
-      </c>
-      <c r="F1374" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F1374" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1374" t="inlineStr">
@@ -45576,28 +45588,28 @@
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr"/>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45614,23 +45626,23 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr"/>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H1376" t="inlineStr">
@@ -45652,23 +45664,23 @@
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr"/>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>126.62</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1377" t="inlineStr">
@@ -45685,30 +45697,18 @@
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1378" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1378" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
       <c r="H1378" t="inlineStr">
         <is>
           <t>3</t>
@@ -45723,18 +45723,26 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>€5628M</t>
+        </is>
+      </c>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr">
+        <is>
+          <t>€2900.0M</t>
+        </is>
+      </c>
       <c r="H1379" t="inlineStr">
         <is>
           <t>3</t>
@@ -45744,31 +45752,23 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1380" t="inlineStr"/>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1380" t="inlineStr"/>
       <c r="H1380" t="inlineStr">
         <is>
           <t>3</t>
@@ -45778,21 +45778,25 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>11.5%</t>
+        </is>
+      </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
       <c r="H1381" t="inlineStr">
@@ -45814,7 +45818,7 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr"/>
@@ -45844,13 +45848,13 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr"/>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>$634.59B</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr"/>
@@ -45864,26 +45868,30 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr"/>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>$634.59B</t>
-        </is>
-      </c>
-      <c r="F1384" t="inlineStr"/>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F1384" t="inlineStr">
+        <is>
+          <t>C$14.5B</t>
+        </is>
+      </c>
       <c r="G1384" t="inlineStr"/>
       <c r="H1384" t="inlineStr">
         <is>
@@ -45904,20 +45912,16 @@
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr"/>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F1385" t="inlineStr">
-        <is>
-          <t>C$14.5B</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
       <c r="H1385" t="inlineStr">
         <is>
@@ -45933,25 +45937,33 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr"/>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F1386" t="inlineStr">
+        <is>
+          <t>1.46M</t>
+        </is>
+      </c>
+      <c r="G1386" t="inlineStr">
+        <is>
+          <t>1.48M</t>
+        </is>
+      </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -45968,23 +45980,23 @@
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr"/>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F1387" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H1387" t="inlineStr">
@@ -46006,28 +46018,24 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1388" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46044,19 +46052,19 @@
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1389" t="inlineStr">
@@ -46068,31 +46076,23 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1390" t="inlineStr"/>
       <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1390" t="inlineStr"/>
       <c r="H1390" t="inlineStr">
         <is>
           <t>2</t>
@@ -46102,23 +46102,35 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1391" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G1391" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H1391" t="inlineStr">
         <is>
           <t>2</t>
@@ -46138,28 +46150,28 @@
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46176,23 +46188,19 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr"/>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1393" t="inlineStr">
@@ -46214,19 +46222,23 @@
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr"/>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F1394" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1394" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1394" t="inlineStr">
@@ -46248,23 +46260,19 @@
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1395" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1395" t="inlineStr">
@@ -46276,7 +46284,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
@@ -46286,21 +46294,17 @@
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr"/>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr"/>
-      <c r="G1396" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1396" t="inlineStr"/>
       <c r="H1396" t="inlineStr">
         <is>
           <t>3</t>
@@ -46320,13 +46324,13 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr"/>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F1397" t="inlineStr"/>
@@ -46338,29 +46342,29 @@
       </c>
     </row>
     <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1398" t="inlineStr"/>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr"/>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr"/>
+      <c r="G1398" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
       <c r="H1398" t="inlineStr">
         <is>
           <t>3</t>
@@ -46511,7 +46515,11 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="F1404" t="inlineStr"/>
+      <c r="F1404" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="G1404" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -46545,7 +46553,11 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="F1405" t="inlineStr"/>
+      <c r="F1405" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
       <c r="G1405" t="inlineStr">
         <is>
           <t>5%</t>
@@ -47993,7 +48005,11 @@
           <t>15.7</t>
         </is>
       </c>
-      <c r="F1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr">
+        <is>
+          <t>15.4</t>
+        </is>
+      </c>
       <c r="G1451" t="inlineStr">
         <is>
           <t>14</t>
@@ -48027,7 +48043,11 @@
           <t>-93.1</t>
         </is>
       </c>
-      <c r="F1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr">
+        <is>
+          <t>-93</t>
+        </is>
+      </c>
       <c r="G1452" t="inlineStr">
         <is>
           <t>-94</t>
@@ -49527,7 +49547,11 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="F1500" t="inlineStr"/>
+      <c r="F1500" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G1500" t="inlineStr">
         <is>
           <t>4%</t>
@@ -49591,7 +49615,11 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="F1502" t="inlineStr"/>
+      <c r="F1502" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G1502" t="inlineStr">
         <is>
           <t>-3.8%</t>
@@ -53529,6 +53557,96 @@
         </is>
       </c>
     </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>Ifo Business ClimateJAN</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr"/>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>84.7</t>
+        </is>
+      </c>
+      <c r="F1626" t="inlineStr"/>
+      <c r="G1626" t="inlineStr"/>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>Ifo Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>85.1</t>
+        </is>
+      </c>
+      <c r="F1627" t="inlineStr"/>
+      <c r="G1627" t="inlineStr"/>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>Ifo ExpectationsJAN</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr"/>
+      <c r="H1628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1628"/>
+  <dimension ref="A1:H1630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45522,7 +45522,7 @@
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>€25.8B</t>
+          <t>€30.2B</t>
         </is>
       </c>
       <c r="F1373" t="inlineStr">
@@ -45540,33 +45540,33 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1374" t="inlineStr"/>
+          <t>FDI (YTD) YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>-27.1%</t>
+        </is>
+      </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1374" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>-27.9%</t>
+        </is>
+      </c>
+      <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-27.2%</t>
         </is>
       </c>
       <c r="H1374" t="inlineStr">
@@ -45588,28 +45588,32 @@
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1375" t="inlineStr"/>
+          <t>Inflation Rate YoY FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45626,23 +45630,27 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1376" t="inlineStr"/>
+          <t>Core Inflation Rate YoY FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>126.62</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1376" t="inlineStr">
@@ -45664,23 +45672,27 @@
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1377" t="inlineStr"/>
+          <t>CPI FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="H1377" t="inlineStr">
@@ -45697,18 +45709,34 @@
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
-        </is>
-      </c>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
+          <t>Inflation Rate MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F1378" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1378" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1378" t="inlineStr">
         <is>
           <t>3</t>
@@ -45723,26 +45751,18 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1379" t="inlineStr"/>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1379" t="inlineStr"/>
       <c r="H1379" t="inlineStr">
         <is>
           <t>3</t>
@@ -45752,23 +45772,35 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>€-332M</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>€5628M</t>
+        </is>
+      </c>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr">
+        <is>
+          <t>€2900.0M</t>
+        </is>
+      </c>
       <c r="H1380" t="inlineStr">
         <is>
           <t>3</t>
@@ -45778,25 +45810,21 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr">
-        <is>
-          <t>11.5%</t>
-        </is>
-      </c>
+      <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
       <c r="H1381" t="inlineStr">
@@ -45818,7 +45846,7 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr"/>
@@ -45848,13 +45876,13 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr"/>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr"/>
@@ -45868,30 +45896,26 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr"/>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F1384" t="inlineStr">
-        <is>
-          <t>C$14.5B</t>
-        </is>
-      </c>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F1384" t="inlineStr"/>
       <c r="G1384" t="inlineStr"/>
       <c r="H1384" t="inlineStr">
         <is>
@@ -45912,16 +45936,20 @@
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr"/>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1385" t="inlineStr"/>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F1385" t="inlineStr">
+        <is>
+          <t>C$14.5B</t>
+        </is>
+      </c>
       <c r="G1385" t="inlineStr"/>
       <c r="H1385" t="inlineStr">
         <is>
@@ -45937,33 +45965,25 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr"/>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
-      <c r="G1386" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
+          <t>C$-2.65B</t>
+        </is>
+      </c>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45980,23 +46000,23 @@
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr"/>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1387" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>1.46M</t>
         </is>
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H1387" t="inlineStr">
@@ -46018,24 +46038,28 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1388" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F1388" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -46052,19 +46076,19 @@
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr"/>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H1389" t="inlineStr">
@@ -46076,23 +46100,31 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
       <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H1390" t="inlineStr">
         <is>
           <t>2</t>
@@ -46102,35 +46134,23 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1391" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
       <c r="H1391" t="inlineStr">
         <is>
           <t>2</t>
@@ -46150,28 +46170,28 @@
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr"/>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46188,19 +46208,23 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr"/>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1393" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1393" t="inlineStr">
@@ -46222,23 +46246,19 @@
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr"/>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1394" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1394" t="inlineStr">
@@ -46260,19 +46280,23 @@
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr"/>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F1395" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1395" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1395" t="inlineStr">
@@ -46284,7 +46308,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
@@ -46294,17 +46318,21 @@
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr"/>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr"/>
-      <c r="G1396" t="inlineStr"/>
+      <c r="G1396" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1396" t="inlineStr">
         <is>
           <t>3</t>
@@ -46324,13 +46352,13 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr"/>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1397" t="inlineStr"/>
@@ -46342,29 +46370,29 @@
       </c>
     </row>
     <row r="1398">
-      <c r="A1398" t="inlineStr"/>
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr"/>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1398" t="inlineStr"/>
       <c r="H1398" t="inlineStr">
         <is>
           <t>3</t>
@@ -46482,7 +46510,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
+          <t>Sunday January 19 2025</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -46494,107 +46522,75 @@
       <c r="H1403" t="inlineStr"/>
     </row>
     <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
+      <c r="A1404" t="inlineStr"/>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr"/>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F1404" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+          <t>€-3.93B</t>
+        </is>
+      </c>
+      <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>€-4.2B</t>
+        </is>
+      </c>
+      <c r="H1404" t="inlineStr"/>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1405" t="inlineStr">
-        <is>
-          <t>Machinery Orders YoYNOV</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr"/>
+      <c r="C1405" t="inlineStr"/>
       <c r="D1405" t="inlineStr"/>
-      <c r="E1405" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="F1405" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="G1405" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E1405" t="inlineStr"/>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="inlineStr"/>
+      <c r="H1405" t="inlineStr"/>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>06:45 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr"/>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F1406" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F1406" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1406" t="inlineStr">
@@ -46606,29 +46602,33 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>06:45 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr"/>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1407" t="inlineStr"/>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="F1407" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H1407" t="inlineStr">
@@ -46640,72 +46640,68 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr"/>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr"/>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1409" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46722,19 +46718,19 @@
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr"/>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1410" t="inlineStr">
@@ -46756,19 +46752,23 @@
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr"/>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1411" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1411" t="inlineStr">
@@ -46780,63 +46780,63 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1413" t="inlineStr"/>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1413" t="inlineStr">
@@ -46848,63 +46848,63 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>02:45 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr"/>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr"/>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1415" t="inlineStr">
@@ -46916,27 +46916,31 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1416" t="inlineStr"/>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>2.576%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
+      <c r="G1416" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1416" t="inlineStr">
         <is>
           <t>3</t>
@@ -46946,27 +46950,31 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr"/>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>2.223%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
+      <c r="G1417" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1417" t="inlineStr">
         <is>
           <t>3</t>
@@ -46976,31 +46984,27 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr"/>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>2.576%</t>
         </is>
       </c>
       <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr">
-        <is>
-          <t>$9.5B</t>
-        </is>
-      </c>
+      <c r="G1418" t="inlineStr"/>
       <c r="H1418" t="inlineStr">
         <is>
           <t>3</t>
@@ -47010,31 +47014,27 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr"/>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>2.223%</t>
         </is>
       </c>
       <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
+      <c r="G1419" t="inlineStr"/>
       <c r="H1419" t="inlineStr">
         <is>
           <t>3</t>
@@ -47044,27 +47044,31 @@
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1420" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr"/>
+      <c r="G1420" t="inlineStr">
+        <is>
+          <t>$9.5B</t>
+        </is>
+      </c>
       <c r="H1420" t="inlineStr">
         <is>
           <t>3</t>
@@ -47074,27 +47078,31 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
+      <c r="G1421" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1421" t="inlineStr">
         <is>
           <t>3</t>
@@ -47114,13 +47122,13 @@
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1422" t="inlineStr"/>
@@ -47134,57 +47142,57 @@
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1423" t="inlineStr"/>
-      <c r="E1423" t="inlineStr"/>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>2.691%</t>
+        </is>
+      </c>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr"/>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1424" t="inlineStr"/>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1424" t="inlineStr"/>
       <c r="H1424" t="inlineStr">
         <is>
           <t>3</t>
@@ -47194,79 +47202,91 @@
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr"/>
+      <c r="E1425" t="inlineStr"/>
+      <c r="F1425" t="inlineStr"/>
+      <c r="G1425" t="inlineStr"/>
+      <c r="H1425" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
           <t>09:30 PM</t>
         </is>
       </c>
-      <c r="B1425" t="inlineStr">
+      <c r="B1426" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="C1425" t="inlineStr">
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr"/>
+      <c r="E1426" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F1426" t="inlineStr"/>
+      <c r="G1426" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H1426" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
         <is>
           <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1425" t="inlineStr"/>
-      <c r="E1425" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr"/>
-      <c r="B1426" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1426" t="inlineStr">
-        <is>
-          <t>Eurogroup Meeting</t>
-        </is>
-      </c>
-      <c r="D1426" t="inlineStr"/>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr"/>
-      <c r="B1427" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1427" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr"/>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr"/>
+      <c r="G1427" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H1427" t="inlineStr">
         <is>
           <t>3</t>
@@ -47277,26 +47297,18 @@
       <c r="A1428" t="inlineStr"/>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
+      <c r="E1428" t="inlineStr"/>
       <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>-27.2%</t>
-        </is>
-      </c>
+      <c r="G1428" t="inlineStr"/>
       <c r="H1428" t="inlineStr">
         <is>
           <t>3</t>
@@ -47307,26 +47319,22 @@
       <c r="A1429" t="inlineStr"/>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr"/>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1429" t="inlineStr"/>
       <c r="H1429" t="inlineStr">
         <is>
           <t>3</t>
@@ -47337,18 +47345,26 @@
       <c r="A1430" t="inlineStr"/>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
       <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr"/>
+      <c r="G1430" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1430" t="inlineStr">
         <is>
           <t>3</t>
@@ -47359,26 +47375,18 @@
       <c r="A1431" t="inlineStr"/>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
+      <c r="E1431" t="inlineStr"/>
       <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G1431" t="inlineStr"/>
       <c r="H1431" t="inlineStr">
         <is>
           <t>3</t>
@@ -47389,106 +47397,102 @@
       <c r="A1432" t="inlineStr"/>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1432" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr"/>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Central Government DebtDEC</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F1433" t="inlineStr"/>
+      <c r="G1433" t="inlineStr">
+        <is>
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
+      <c r="H1433" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1434" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr"/>
+      <c r="C1434" t="inlineStr"/>
       <c r="D1434" t="inlineStr"/>
-      <c r="E1434" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
+      <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1434" t="inlineStr"/>
+      <c r="H1434" t="inlineStr"/>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 1463M</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -47510,19 +47514,19 @@
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -47534,27 +47538,31 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr"/>
+      <c r="G1437" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H1437" t="inlineStr">
         <is>
           <t>3</t>
@@ -47564,23 +47572,23 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
@@ -47604,13 +47612,13 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
@@ -47624,34 +47632,30 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
+      <c r="G1440" t="inlineStr"/>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -47663,29 +47667,29 @@
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47702,24 +47706,24 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47736,19 +47740,19 @@
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr"/>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>50.0K</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47770,24 +47774,24 @@
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>50.0K</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47804,19 +47808,19 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>0.3K</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr"/>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47838,19 +47842,19 @@
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>0.3K</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>-5K</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
@@ -47862,27 +47866,31 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1447" t="inlineStr">
         <is>
           <t>3</t>
@@ -47902,13 +47910,13 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr"/>
@@ -47932,13 +47940,13 @@
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
@@ -47952,34 +47960,30 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="G1450" t="inlineStr"/>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -47991,7 +47995,7 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
@@ -48002,22 +48006,18 @@
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>15.4</t>
-        </is>
-      </c>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48034,35 +48034,35 @@
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1452" t="inlineStr">
         <is>
-          <t>-93</t>
+          <t>15.4</t>
         </is>
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>-94</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
@@ -48072,13 +48072,25 @@
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr"/>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F1453" t="inlineStr">
+        <is>
+          <t>-93</t>
+        </is>
+      </c>
+      <c r="G1453" t="inlineStr">
+        <is>
+          <t>-94</t>
+        </is>
+      </c>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -48088,31 +48100,27 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>10-Year Bund/g Auction</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -48122,31 +48130,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>5-Year Bund/g Auction</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>2.02%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -48156,68 +48160,68 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48234,24 +48238,24 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -48268,24 +48272,24 @@
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48302,24 +48306,24 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48336,19 +48340,19 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1461" t="inlineStr">
@@ -48360,27 +48364,31 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -48390,27 +48398,31 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -48420,7 +48432,7 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
@@ -48430,13 +48442,13 @@
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
@@ -48460,13 +48472,13 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
@@ -48478,19 +48490,27 @@
       </c>
     </row>
     <row r="1466">
-      <c r="A1466" t="inlineStr"/>
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>4.070%</t>
+        </is>
+      </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
@@ -48502,139 +48522,123 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr"/>
-      <c r="C1467" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr"/>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>4.180%</t>
+        </is>
+      </c>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr"/>
+      <c r="H1467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
+      <c r="A1468" t="inlineStr"/>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
-      <c r="E1468" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1468" t="inlineStr"/>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1469" t="inlineStr">
-        <is>
-          <t>Westpac Leading Index MoMDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr"/>
+      <c r="C1469" t="inlineStr"/>
       <c r="D1469" t="inlineStr"/>
-      <c r="E1469" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1469" t="inlineStr"/>
+      <c r="H1469" t="inlineStr"/>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Westpac Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
@@ -48645,41 +48649,41 @@
       </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48696,7 +48700,7 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
@@ -48708,12 +48712,12 @@
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48730,51 +48734,55 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>2.64%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
           <t>3</t>
@@ -48784,7 +48792,7 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
@@ -48794,19 +48802,19 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1476" t="inlineStr">
@@ -48818,23 +48826,23 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>2.64%</t>
         </is>
       </c>
       <c r="F1477" t="inlineStr"/>
@@ -48848,27 +48856,31 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>2.639%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48878,23 +48890,23 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>2.541%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
@@ -48908,23 +48920,23 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>2.639%</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr"/>
@@ -48938,53 +48950,53 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>7.09%</t>
+          <t>2.541%</t>
         </is>
       </c>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
@@ -49008,20 +49020,20 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>224.4</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -49038,13 +49050,13 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>575.6</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
@@ -49068,13 +49080,13 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>224.4</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
@@ -49088,31 +49100,27 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>575.6</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -49122,31 +49130,27 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
       <c r="H1487" t="inlineStr">
         <is>
           <t>3</t>
@@ -49166,19 +49170,19 @@
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1488" t="inlineStr">
@@ -49200,19 +49204,19 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -49224,27 +49228,31 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -49254,27 +49262,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>4.210%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -49284,7 +49296,7 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
@@ -49294,13 +49306,13 @@
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
@@ -49314,45 +49326,57 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr"/>
-      <c r="C1493" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr"/>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>4.210%</t>
+        </is>
+      </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr"/>
+      <c r="H1493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>4.686%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -49362,71 +49386,55 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1495" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr"/>
+      <c r="C1495" t="inlineStr"/>
       <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
+      <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
+      <c r="H1495" t="inlineStr"/>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
+      <c r="G1496" t="inlineStr">
+        <is>
+          <t>115.0%</t>
+        </is>
+      </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
@@ -49436,19 +49444,19 @@
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1497" t="inlineStr">
@@ -49460,106 +49468,98 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1498" t="inlineStr"/>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>¥ 100B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1500" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -49576,20 +49576,28 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>¥756.7B</t>
-        </is>
-      </c>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
+      <c r="F1501" t="inlineStr">
+        <is>
+          <t>¥-53B</t>
+        </is>
+      </c>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -49606,28 +49614,28 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -49644,13 +49652,13 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>¥313.3B</t>
+          <t>¥756.7B</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
@@ -49664,27 +49672,35 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G1504" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="H1504" t="inlineStr">
         <is>
           <t>3</t>
@@ -49694,7 +49710,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49704,13 +49720,13 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>0.3544%</t>
+          <t>¥313.3B</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
@@ -49724,23 +49740,23 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
@@ -49754,31 +49770,27 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3544%</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
@@ -49798,21 +49810,17 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49832,19 +49840,19 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1509" t="inlineStr">
@@ -49856,29 +49864,29 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1510" t="inlineStr">
@@ -49890,27 +49898,31 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49930,17 +49942,21 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr"/>
+      <c r="G1512" t="inlineStr">
+        <is>
+          <t>SAR21.8B</t>
+        </is>
+      </c>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49950,23 +49966,23 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
@@ -49980,109 +49996,101 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>SAR72B</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>81.5</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
@@ -50092,43 +50100,55 @@
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
+      <c r="G1517" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
+      <c r="G1518" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
       <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
@@ -50138,7 +50158,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
@@ -50148,7 +50168,7 @@
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
@@ -50164,21 +50184,25 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
@@ -50195,20 +50219,16 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
@@ -50225,29 +50245,21 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1522" t="inlineStr"/>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="G1522" t="inlineStr"/>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50259,29 +50271,25 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
+      <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50298,24 +50306,24 @@
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50327,24 +50335,28 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="F1525" t="inlineStr"/>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -50361,124 +50373,124 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
+      <c r="G1527" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
           <t>3</t>
@@ -50498,19 +50510,19 @@
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1530" t="inlineStr">
@@ -50532,19 +50544,19 @@
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
@@ -50556,68 +50568,68 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50634,13 +50646,21 @@
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1534" t="inlineStr">
         <is>
           <t>2</t>
@@ -50660,24 +50680,24 @@
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50689,20 +50709,16 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
+      <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
@@ -50719,22 +50735,26 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1537" t="inlineStr">
         <is>
           <t>3</t>
@@ -50754,57 +50774,57 @@
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr"/>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
+      <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
@@ -50814,15 +50834,11 @@
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>-258Bcf</t>
-        </is>
-      </c>
+      <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -50834,27 +50850,35 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>-1.961M</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G1541" t="inlineStr">
+        <is>
+          <t>-14.7</t>
+        </is>
+      </c>
       <c r="H1541" t="inlineStr">
         <is>
           <t>2</t>
@@ -50864,7 +50888,7 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
@@ -50874,20 +50898,20 @@
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50904,20 +50928,20 @@
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50934,20 +50958,20 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50964,13 +50988,13 @@
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
@@ -50994,13 +51018,13 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
@@ -51024,13 +51048,13 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
@@ -51054,13 +51078,13 @@
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
@@ -51084,13 +51108,13 @@
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
@@ -51104,7 +51128,7 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
@@ -51114,13 +51138,13 @@
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
@@ -51134,7 +51158,7 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
@@ -51144,13 +51168,13 @@
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
@@ -51164,23 +51188,23 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
@@ -51194,7 +51218,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
@@ -51204,13 +51228,13 @@
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
@@ -51229,18 +51253,18 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
@@ -51254,7 +51278,7 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
@@ -51264,13 +51288,13 @@
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr"/>
@@ -51282,21 +51306,25 @@
       </c>
     </row>
     <row r="1556">
-      <c r="A1556" t="inlineStr"/>
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
@@ -51308,29 +51336,29 @@
       </c>
     </row>
     <row r="1557">
-      <c r="A1557" t="inlineStr"/>
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>BRL209.2B</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
+      <c r="G1557" t="inlineStr"/>
       <c r="H1557" t="inlineStr">
         <is>
           <t>3</t>
@@ -51338,45 +51366,53 @@
       </c>
     </row>
     <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr"/>
-      <c r="C1558" t="inlineStr"/>
+      <c r="A1558" t="inlineStr"/>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>20-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr"/>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
       <c r="F1558" t="inlineStr"/>
       <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr"/>
+      <c r="H1558" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
+      <c r="A1559" t="inlineStr"/>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>BRL209.2B</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr"/>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>BRL 255.1B</t>
         </is>
       </c>
       <c r="H1559" t="inlineStr">
@@ -51388,98 +51424,78 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/22</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr"/>
+      <c r="C1560" t="inlineStr"/>
       <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr">
-        <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
+      <c r="E1560" t="inlineStr"/>
       <c r="F1560" t="inlineStr"/>
       <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1560" t="inlineStr"/>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+      <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51496,92 +51512,92 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51598,24 +51614,24 @@
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51632,65 +51648,69 @@
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -51700,58 +51720,58 @@
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51768,24 +51788,24 @@
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51797,36 +51817,36 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
@@ -51836,115 +51856,119 @@
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr"/>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>18.55%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1575" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
+      <c r="E1576" t="inlineStr"/>
       <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
+      <c r="G1576" t="inlineStr"/>
       <c r="H1576" t="inlineStr">
         <is>
           <t>2</t>
@@ -51954,34 +51978,30 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>56.1</t>
-        </is>
-      </c>
+      <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51998,19 +52018,19 @@
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -52027,29 +52047,29 @@
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52061,58 +52081,58 @@
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
@@ -52124,68 +52144,68 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52202,70 +52222,70 @@
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
@@ -52276,18 +52296,18 @@
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52304,36 +52324,40 @@
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
@@ -52344,13 +52368,13 @@
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -52362,29 +52386,33 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1589" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52406,19 +52434,19 @@
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52430,68 +52458,76 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1591" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1592" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1592" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52508,65 +52544,65 @@
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>91.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
@@ -52576,47 +52612,55 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
-      <c r="E1596" t="inlineStr"/>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr">
+        <is>
+          <t>91.4</t>
+        </is>
+      </c>
       <c r="H1596" t="inlineStr">
         <is>
           <t>3</t>
@@ -52626,65 +52670,57 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1598" t="inlineStr"/>
       <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1598" t="inlineStr"/>
       <c r="H1598" t="inlineStr">
         <is>
           <t>3</t>
@@ -52699,24 +52735,24 @@
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -52728,68 +52764,68 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52806,53 +52842,53 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -52864,34 +52900,34 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52908,19 +52944,19 @@
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -52932,7 +52968,7 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
@@ -52942,31 +52978,31 @@
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>4.15M</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
@@ -52976,19 +53012,19 @@
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -53010,28 +53046,28 @@
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -53048,28 +53084,24 @@
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1609" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53086,28 +53118,28 @@
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53124,23 +53156,23 @@
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -53162,23 +53194,23 @@
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -53190,7 +53222,7 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
@@ -53200,19 +53232,23 @@
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1613" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1613" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -53224,7 +53260,7 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
@@ -53234,19 +53270,23 @@
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1614" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -53258,7 +53298,7 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
@@ -53268,13 +53308,21 @@
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
-      <c r="E1615" t="inlineStr"/>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="F1615" t="inlineStr"/>
-      <c r="G1615" t="inlineStr"/>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
       <c r="H1615" t="inlineStr">
         <is>
           <t>3</t>
@@ -53284,7 +53332,7 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -53294,13 +53342,21 @@
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
-      <c r="E1616" t="inlineStr"/>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="H1616" t="inlineStr">
         <is>
           <t>3</t>
@@ -53310,45 +53366,49 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr"/>
-      <c r="C1617" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
+        </is>
+      </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr"/>
       <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr"/>
-      <c r="H1617" t="inlineStr"/>
+      <c r="H1617" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1618" t="inlineStr"/>
       <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1618" t="inlineStr"/>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53358,57 +53418,45 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr">
-        <is>
-          <t>Coincident Index FinalNOV</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr"/>
+      <c r="C1619" t="inlineStr"/>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1619" t="inlineStr"/>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr"/>
-      <c r="H1619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1619" t="inlineStr"/>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>109.1</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr"/>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1620" t="inlineStr">
         <is>
           <t>3</t>
@@ -53423,18 +53471,18 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
@@ -53453,16 +53501,20 @@
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
-      <c r="E1622" t="inlineStr"/>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>109.1</t>
+        </is>
+      </c>
       <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr"/>
       <c r="H1622" t="inlineStr">
@@ -53484,11 +53536,15 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
-      <c r="E1623" t="inlineStr"/>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr"/>
       <c r="H1623" t="inlineStr">
@@ -53500,55 +53556,47 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
@@ -53560,53 +53608,53 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
@@ -53630,18 +53678,78 @@
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>Ifo Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr"/>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>85.1</t>
+        </is>
+      </c>
+      <c r="F1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr"/>
+      <c r="H1629" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>Ifo ExpectationsJAN</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr"/>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1630" t="inlineStr"/>
+      <c r="G1630" t="inlineStr"/>
+      <c r="H1630" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1630"/>
+  <dimension ref="A1:H1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45645,7 +45645,7 @@
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G1376" t="inlineStr">
@@ -45792,7 +45792,7 @@
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>€5511M</t>
         </is>
       </c>
       <c r="F1380" t="inlineStr"/>
@@ -47489,7 +47489,11 @@
           <t>$1234M</t>
         </is>
       </c>
-      <c r="F1435" t="inlineStr"/>
+      <c r="F1435" t="inlineStr">
+        <is>
+          <t>$921M</t>
+        </is>
+      </c>
       <c r="G1435" t="inlineStr">
         <is>
           <t>$ 1463M</t>
@@ -53755,6 +53759,100 @@
         </is>
       </c>
     </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>04:15 PM</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>EU Bond Auction</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr"/>
+      <c r="F1631" t="inlineStr"/>
+      <c r="G1631" t="inlineStr"/>
+      <c r="H1631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>Unemployment Benefit ClaimsDEC</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr"/>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1632" t="inlineStr"/>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="H1632" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>Jobseekers TotalDEC</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr"/>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1633" t="inlineStr"/>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>2875K</t>
+        </is>
+      </c>
+      <c r="H1633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1633"/>
+  <dimension ref="A1:H1637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45849,7 +45849,11 @@
           <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
-      <c r="D1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="E1382" t="inlineStr">
         <is>
           <t>11.5%</t>
@@ -45879,7 +45883,11 @@
           <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
-      <c r="D1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="E1383" t="inlineStr">
         <is>
           <t>11.5%</t>
@@ -45909,7 +45917,11 @@
           <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
-      <c r="D1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="E1384" t="inlineStr">
         <is>
           <t>$634.59B</t>
@@ -46659,7 +46671,11 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="F1408" t="inlineStr"/>
+      <c r="F1408" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1408" t="inlineStr">
         <is>
           <t>3.1%</t>
@@ -46693,7 +46709,11 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="F1409" t="inlineStr"/>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G1409" t="inlineStr">
         <is>
           <t>3.6%</t>
@@ -46833,7 +46853,11 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1413" t="inlineStr"/>
+      <c r="F1413" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1413" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -47454,83 +47478,71 @@
       </c>
     </row>
     <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr"/>
-      <c r="C1434" t="inlineStr"/>
+      <c r="A1434" t="inlineStr"/>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>Inauguration Day</t>
+        </is>
+      </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr"/>
+      <c r="H1434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1435" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr"/>
+      <c r="C1435" t="inlineStr"/>
       <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F1435" t="inlineStr">
-        <is>
-          <t>$921M</t>
-        </is>
-      </c>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E1435" t="inlineStr"/>
+      <c r="F1435" t="inlineStr"/>
+      <c r="G1435" t="inlineStr"/>
+      <c r="H1435" t="inlineStr"/>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr"/>
+          <t>$1234M</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr">
+        <is>
+          <t>$921M</t>
+        </is>
+      </c>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 1463M</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -47552,19 +47564,19 @@
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -47576,27 +47588,31 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr"/>
+      <c r="G1438" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H1438" t="inlineStr">
         <is>
           <t>3</t>
@@ -47606,23 +47622,23 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
@@ -47646,13 +47662,13 @@
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
@@ -47666,34 +47682,30 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
+      <c r="G1441" t="inlineStr"/>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -47705,29 +47717,29 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47744,24 +47756,24 @@
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr"/>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47778,19 +47790,19 @@
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>50.0K</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47812,24 +47824,24 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr"/>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>50.0K</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47846,19 +47858,19 @@
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>0.3K</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
@@ -47880,19 +47892,19 @@
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>0.3K</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>-5K</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47904,27 +47916,31 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr"/>
+      <c r="G1448" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1448" t="inlineStr">
         <is>
           <t>3</t>
@@ -47944,17 +47960,21 @@
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr"/>
+      <c r="G1449" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47974,17 +47994,21 @@
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr"/>
+      <c r="G1450" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H1450" t="inlineStr">
         <is>
           <t>3</t>
@@ -47994,34 +48018,34 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-3.5%</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48033,7 +48057,7 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
@@ -48044,22 +48068,18 @@
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>15.4</t>
-        </is>
-      </c>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48076,35 +48096,35 @@
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>-93</t>
+          <t>15.4</t>
         </is>
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>-94</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
@@ -48114,17 +48134,25 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>10-Year Bund/g Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>2.16%</t>
-        </is>
-      </c>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F1454" t="inlineStr">
+        <is>
+          <t>-93</t>
+        </is>
+      </c>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>-94</t>
+        </is>
+      </c>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -48144,13 +48172,13 @@
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>5-Year Bund/g Auction</t>
+          <t>10-Year Bund/g Auction</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>2.02%</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
@@ -48164,31 +48192,27 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>5-Year Bund/g Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>2.02%</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
           <t>3</t>
@@ -48208,19 +48232,19 @@
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1457" t="inlineStr">
@@ -48232,34 +48256,34 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48276,24 +48300,24 @@
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -48310,19 +48334,19 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1460" t="inlineStr">
@@ -48344,13 +48368,13 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
@@ -48361,7 +48385,7 @@
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48378,19 +48402,19 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
@@ -48412,19 +48436,19 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1463" t="inlineStr">
@@ -48436,27 +48460,31 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H1464" t="inlineStr">
         <is>
           <t>3</t>
@@ -48466,7 +48494,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -48476,13 +48504,13 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
@@ -48506,13 +48534,13 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
@@ -48536,13 +48564,13 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
@@ -48554,19 +48582,27 @@
       </c>
     </row>
     <row r="1468">
-      <c r="A1468" t="inlineStr"/>
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
-      <c r="E1468" t="inlineStr"/>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>4.180%</t>
+        </is>
+      </c>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
@@ -48576,113 +48612,101 @@
       </c>
     </row>
     <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
-      <c r="C1469" t="inlineStr"/>
+      <c r="A1469" t="inlineStr"/>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>ECOFIN Meeting</t>
+        </is>
+      </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr"/>
+      <c r="H1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1470" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr"/>
+      <c r="C1470" t="inlineStr"/>
       <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1470" t="inlineStr"/>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1470" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1470" t="inlineStr"/>
+      <c r="H1470" t="inlineStr"/>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Westpac Leading Index MoMDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Westpac Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -48694,34 +48718,34 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -48738,19 +48762,19 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48772,24 +48796,24 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -48806,19 +48830,19 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1476" t="inlineStr">
@@ -48830,27 +48854,31 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>2.64%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
           <t>3</t>
@@ -48860,31 +48888,27 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2.64%</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48904,17 +48928,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>3</t>
@@ -48924,27 +48952,31 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>2.639%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
+      <c r="G1480" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H1480" t="inlineStr">
         <is>
           <t>3</t>
@@ -48964,13 +48996,13 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>2.541%</t>
+          <t>2.639%</t>
         </is>
       </c>
       <c r="F1481" t="inlineStr"/>
@@ -48984,23 +49016,23 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>2.541%</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
@@ -49014,30 +49046,30 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>7.09%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
       <c r="G1483" t="inlineStr"/>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -49054,20 +49086,20 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -49084,13 +49116,13 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>224.4</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
@@ -49114,13 +49146,13 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>575.6</t>
+          <t>224.4</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr"/>
@@ -49144,13 +49176,13 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>575.6</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
@@ -49164,31 +49196,27 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -49208,19 +49236,19 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -49242,19 +49270,19 @@
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -49276,19 +49304,19 @@
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
@@ -49300,27 +49328,31 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
+      <c r="G1492" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -49330,7 +49362,7 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
@@ -49340,16 +49372,20 @@
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="F1493" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1493" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
@@ -49360,7 +49396,7 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
@@ -49370,13 +49406,13 @@
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
@@ -49390,109 +49426,109 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr"/>
-      <c r="C1495" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>4.686%</t>
+        </is>
+      </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr"/>
+      <c r="H1495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1496" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr"/>
+      <c r="C1496" t="inlineStr"/>
       <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
+      <c r="E1496" t="inlineStr"/>
       <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1496" t="inlineStr"/>
+      <c r="H1496" t="inlineStr"/>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="H1498" t="inlineStr">
         <is>
           <t>2</t>
@@ -49502,31 +49538,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>2</t>
@@ -49546,62 +49578,58 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1501" t="inlineStr">
-        <is>
-          <t>¥-53B</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>¥ 100B</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -49618,28 +49646,28 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>¥-53B</t>
         </is>
       </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -49656,20 +49684,28 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>¥756.7B</t>
-        </is>
-      </c>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F1503" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -49686,25 +49722,17 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1504" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+          <t>¥756.7B</t>
+        </is>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
         <is>
           <t>3</t>
@@ -49724,17 +49752,25 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>¥313.3B</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="F1505" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
           <t>3</t>
@@ -49744,23 +49780,23 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>¥313.3B</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
@@ -49774,23 +49810,23 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>0.3544%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
@@ -49804,23 +49840,23 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.3544%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
@@ -49844,21 +49880,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49878,19 +49910,19 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1510" t="inlineStr">
@@ -49912,19 +49944,19 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1511" t="inlineStr">
@@ -49936,29 +49968,29 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -49980,17 +50012,21 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr">
+        <is>
+          <t>SAR21.8B</t>
+        </is>
+      </c>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -50010,13 +50046,13 @@
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
@@ -50030,23 +50066,23 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>SAR72B</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
@@ -50065,58 +50101,58 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -50138,31 +50174,31 @@
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
@@ -50172,13 +50208,21 @@
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr"/>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
+      <c r="G1519" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
       <c r="H1519" t="inlineStr">
         <is>
           <t>3</t>
@@ -50193,20 +50237,16 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
@@ -50218,21 +50258,25 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
@@ -50254,7 +50298,7 @@
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
@@ -50275,20 +50319,16 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
@@ -50305,29 +50345,29 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>23.0%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50344,23 +50384,19 @@
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -50382,24 +50418,28 @@
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50411,29 +50451,29 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50450,19 +50490,19 @@
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
@@ -50474,61 +50514,61 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1530" t="inlineStr"/>
       <c r="H1530" t="inlineStr">
         <is>
           <t>3</t>
@@ -50548,19 +50588,19 @@
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
@@ -50582,19 +50622,19 @@
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
@@ -50616,19 +50656,19 @@
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
@@ -50640,34 +50680,34 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50684,19 +50724,19 @@
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
@@ -50718,13 +50758,21 @@
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr"/>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1536" t="inlineStr">
         <is>
           <t>2</t>
@@ -50744,24 +50792,16 @@
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50773,25 +50813,29 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
+      <c r="G1538" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50808,20 +50852,20 @@
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr"/>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50838,11 +50882,15 @@
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr"/>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>1859K</t>
+        </is>
+      </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr"/>
       <c r="H1540" t="inlineStr">
@@ -50854,75 +50902,71 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
+      <c r="E1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr"/>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
-        </is>
-      </c>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1542" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G1542" t="inlineStr">
+        <is>
+          <t>-14.7</t>
+        </is>
+      </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
@@ -50932,20 +50976,20 @@
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50962,13 +51006,13 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr"/>
@@ -50992,20 +51036,20 @@
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr"/>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51022,13 +51066,13 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
@@ -51052,13 +51096,13 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
@@ -51082,13 +51126,13 @@
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
@@ -51112,13 +51156,13 @@
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
@@ -51142,13 +51186,13 @@
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
@@ -51172,13 +51216,13 @@
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
@@ -51192,7 +51236,7 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
@@ -51202,13 +51246,13 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
@@ -51232,13 +51276,13 @@
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
@@ -51252,23 +51296,23 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
@@ -51287,18 +51331,18 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr"/>
@@ -51322,13 +51366,13 @@
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
@@ -51342,7 +51386,7 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
@@ -51352,13 +51396,13 @@
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
@@ -51370,21 +51414,25 @@
       </c>
     </row>
     <row r="1558">
-      <c r="A1558" t="inlineStr"/>
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
@@ -51399,104 +51447,100 @@
       <c r="A1559" t="inlineStr"/>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
+          <t>2.750%</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
+      <c r="H1559" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr"/>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>Federal Tax RevenuesDEC</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr"/>
+      <c r="E1560" t="inlineStr">
+        <is>
           <t>BRL209.2B</t>
         </is>
       </c>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr">
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="inlineStr">
         <is>
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1559" t="inlineStr">
+      <c r="H1560" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr"/>
-      <c r="C1560" t="inlineStr"/>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr"/>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr">
-        <is>
-          <t>Economic Activity YoYNOV</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr"/>
+      <c r="C1561" t="inlineStr"/>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1561" t="inlineStr"/>
       <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1561" t="inlineStr"/>
+      <c r="H1561" t="inlineStr"/>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
+      <c r="G1562" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1562" t="inlineStr">
         <is>
           <t>3</t>
@@ -51506,34 +51550,30 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="G1563" t="inlineStr"/>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51550,19 +51590,19 @@
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr">
@@ -51584,58 +51624,58 @@
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51652,28 +51692,24 @@
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51690,24 +51726,28 @@
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51724,19 +51764,19 @@
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
@@ -51748,68 +51788,68 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51826,19 +51866,19 @@
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
@@ -51860,24 +51900,24 @@
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51889,24 +51929,24 @@
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -51918,38 +51958,34 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51966,80 +52002,84 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr"/>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1576" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr">
-        <is>
-          <t>18.55%</t>
-        </is>
-      </c>
+      <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr"/>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
+      <c r="G1578" t="inlineStr"/>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52056,19 +52096,19 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
@@ -52090,19 +52130,19 @@
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -52119,29 +52159,29 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52158,19 +52198,19 @@
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
@@ -52182,29 +52222,29 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr"/>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
@@ -52216,34 +52256,34 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52260,19 +52300,19 @@
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
@@ -52294,62 +52334,58 @@
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1587" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52366,24 +52402,28 @@
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52400,23 +52440,19 @@
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52428,29 +52464,33 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52472,23 +52512,19 @@
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52510,23 +52546,23 @@
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52538,34 +52574,38 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1593" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1593" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52582,19 +52622,19 @@
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52616,53 +52656,53 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr"/>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>91.4</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
@@ -52679,86 +52719,90 @@
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
-      <c r="E1598" t="inlineStr"/>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="F1598" t="inlineStr"/>
-      <c r="G1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1599" t="inlineStr"/>
       <c r="H1599" t="inlineStr">
         <is>
           <t>3</t>
@@ -52773,24 +52817,24 @@
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -52812,19 +52856,19 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -52836,34 +52880,34 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52880,19 +52924,19 @@
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -52914,58 +52958,58 @@
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52982,19 +53026,19 @@
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -53016,19 +53060,19 @@
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -53040,7 +53084,7 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
@@ -53050,28 +53094,24 @@
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1608" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53088,24 +53128,28 @@
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F1609" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="F1609" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -53122,23 +53166,19 @@
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -53160,28 +53200,28 @@
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53198,23 +53238,23 @@
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -53236,23 +53276,23 @@
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -53274,23 +53314,23 @@
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -53302,7 +53342,7 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
@@ -53312,19 +53352,23 @@
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -53346,19 +53390,19 @@
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -53370,7 +53414,7 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
@@ -53380,13 +53424,21 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
-      <c r="E1617" t="inlineStr"/>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr"/>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="H1617" t="inlineStr">
         <is>
           <t>3</t>
@@ -53406,7 +53458,7 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
@@ -53422,75 +53474,71 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr"/>
-      <c r="C1619" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
+        </is>
+      </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr"/>
       <c r="F1619" t="inlineStr"/>
       <c r="G1619" t="inlineStr"/>
-      <c r="H1619" t="inlineStr"/>
+      <c r="H1619" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr">
-        <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr"/>
+      <c r="C1620" t="inlineStr"/>
       <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="H1620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1620" t="inlineStr"/>
+      <c r="H1620" t="inlineStr"/>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1621" t="inlineStr">
         <is>
           <t>3</t>
@@ -53510,13 +53558,13 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>109.1</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
@@ -53535,18 +53583,18 @@
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
@@ -53570,11 +53618,15 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
@@ -53596,7 +53648,7 @@
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
@@ -53612,30 +53664,26 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr"/>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53652,50 +53700,50 @@
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>75.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
       <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53712,20 +53760,20 @@
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -53742,13 +53790,13 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
@@ -53762,21 +53810,25 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>84.4</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
@@ -53788,34 +53840,26 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53832,24 +53876,152 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr">
         <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="H1633" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>Jobseekers TotalDEC</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr"/>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr">
+        <is>
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1633" t="inlineStr">
+      <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>IPCA mid-month CPI MoMJAN</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr"/>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="inlineStr"/>
+      <c r="H1635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>IPCA mid-month CPI YoYJAN</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr"/>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr"/>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>$ 3.9B</t>
+        </is>
+      </c>
+      <c r="H1637" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1637"/>
+  <dimension ref="A1:H1645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48494,7 +48494,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -48504,13 +48504,13 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
@@ -48534,13 +48534,13 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
@@ -48554,7 +48554,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -48564,13 +48564,13 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
@@ -48584,7 +48584,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
@@ -48594,13 +48594,13 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
@@ -49362,7 +49362,7 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
@@ -49372,20 +49372,16 @@
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1493" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
@@ -49396,7 +49392,7 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
@@ -49406,16 +49402,20 @@
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="F1494" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1494" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
@@ -49436,13 +49436,13 @@
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
@@ -49456,109 +49456,109 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr"/>
-      <c r="C1496" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>4.686%</t>
+        </is>
+      </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr"/>
+      <c r="H1496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr"/>
+      <c r="C1497" t="inlineStr"/>
       <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
+      <c r="E1497" t="inlineStr"/>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
+      <c r="H1497" t="inlineStr"/>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
           <t>2</t>
@@ -49568,31 +49568,27 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1500" t="inlineStr"/>
       <c r="H1500" t="inlineStr">
         <is>
           <t>2</t>
@@ -49612,62 +49608,58 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>¥-53B</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>¥ 100B</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -49684,28 +49676,28 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>¥-53B</t>
         </is>
       </c>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -49722,20 +49714,28 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>¥756.7B</t>
-        </is>
-      </c>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G1504" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -49752,25 +49752,17 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+          <t>¥756.7B</t>
+        </is>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
           <t>3</t>
@@ -49790,17 +49782,25 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>¥313.3B</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49810,23 +49810,23 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>¥313.3B</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr"/>
@@ -49840,23 +49840,23 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>0.3544%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
@@ -49870,23 +49870,23 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.3544%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
@@ -49910,21 +49910,17 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1510" t="inlineStr"/>
       <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
@@ -49944,19 +49940,19 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1511" t="inlineStr">
@@ -49978,19 +49974,19 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -50002,29 +49998,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -50046,17 +50042,21 @@
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
+      <c r="G1514" t="inlineStr">
+        <is>
+          <t>SAR21.8B</t>
+        </is>
+      </c>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -50076,13 +50076,13 @@
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
@@ -50096,31 +50096,27 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>SAR72B</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
           <t>3</t>
@@ -50135,58 +50131,58 @@
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="H1518" t="inlineStr">
@@ -50208,31 +50204,31 @@
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
@@ -50242,13 +50238,21 @@
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
       <c r="H1520" t="inlineStr">
         <is>
           <t>3</t>
@@ -50263,18 +50267,18 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>3-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>2.45%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
@@ -50288,7 +50292,7 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -50298,7 +50302,7 @@
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>4-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
@@ -50314,7 +50318,7 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
@@ -50324,11 +50328,15 @@
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>5-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr"/>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
@@ -50340,31 +50348,27 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>23.0%</t>
-        </is>
-      </c>
+      <c r="G1524" t="inlineStr"/>
       <c r="H1524" t="inlineStr">
         <is>
           <t>3</t>
@@ -50379,29 +50383,21 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>10-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>43.5%</t>
-        </is>
-      </c>
+      <c r="G1525" t="inlineStr"/>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50413,33 +50409,21 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>14-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
+      <c r="E1526" t="inlineStr"/>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr"/>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50451,26 +50435,18 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>15-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>46.5%</t>
-        </is>
-      </c>
+      <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
         <is>
           <t>3</t>
@@ -50485,29 +50461,21 @@
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>28-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
+      <c r="E1528" t="inlineStr"/>
       <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
+      <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50519,56 +50487,52 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
+      <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+      <c r="G1529" t="inlineStr"/>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
       <c r="H1530" t="inlineStr">
         <is>
           <t>3</t>
@@ -50578,97 +50542,101 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>3.62%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
@@ -50680,63 +50648,63 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
@@ -50748,89 +50716,93 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G1536" t="inlineStr"/>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
@@ -50842,57 +50814,65 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H1540" t="inlineStr">
         <is>
           <t>3</t>
@@ -50907,54 +50887,58 @@
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr"/>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>-14.7</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
@@ -50966,67 +50950,67 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr">
-        <is>
-          <t>-258Bcf</t>
-        </is>
-      </c>
+      <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
@@ -51036,17 +51020,21 @@
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
       <c r="H1545" t="inlineStr">
         <is>
           <t>2</t>
@@ -51056,7 +51044,7 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
@@ -51066,17 +51054,21 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>1861K</t>
+        </is>
+      </c>
       <c r="H1546" t="inlineStr">
         <is>
           <t>3</t>
@@ -51086,7 +51078,7 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
@@ -51096,17 +51088,21 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>212.75K</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr">
+        <is>
+          <t>213.0K</t>
+        </is>
+      </c>
       <c r="H1547" t="inlineStr">
         <is>
           <t>3</t>
@@ -51116,37 +51112,45 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>-0.021M</t>
-        </is>
-      </c>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1548" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>-14.7</t>
+        </is>
+      </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
@@ -51156,13 +51160,13 @@
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr"/>
@@ -51186,20 +51190,20 @@
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51216,20 +51220,20 @@
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51246,13 +51250,13 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
@@ -51266,7 +51270,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
@@ -51276,13 +51280,13 @@
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
@@ -51296,7 +51300,7 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
@@ -51306,13 +51310,13 @@
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
@@ -51326,23 +51330,23 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr"/>
@@ -51356,7 +51360,7 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
@@ -51366,13 +51370,13 @@
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
@@ -51386,7 +51390,7 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
@@ -51396,13 +51400,13 @@
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
@@ -51416,7 +51420,7 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
@@ -51426,13 +51430,13 @@
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
@@ -51444,21 +51448,25 @@
       </c>
     </row>
     <row r="1559">
-      <c r="A1559" t="inlineStr"/>
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr"/>
@@ -51470,29 +51478,29 @@
       </c>
     </row>
     <row r="1560">
-      <c r="A1560" t="inlineStr"/>
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>BRL209.2B</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
+      <c r="G1560" t="inlineStr"/>
       <c r="H1560" t="inlineStr">
         <is>
           <t>3</t>
@@ -51502,45 +51510,57 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr"/>
-      <c r="C1561" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
       <c r="F1561" t="inlineStr"/>
       <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr"/>
+      <c r="H1561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1562" t="inlineStr"/>
       <c r="H1562" t="inlineStr">
         <is>
           <t>3</t>
@@ -51550,7 +51570,7 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
@@ -51560,13 +51580,13 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
@@ -51580,97 +51600,81 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="G1564" t="inlineStr"/>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A1565" t="inlineStr"/>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+      <c r="G1565" t="inlineStr"/>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A1566" t="inlineStr"/>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>BRL209.2B</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>BRL 255.1B</t>
         </is>
       </c>
       <c r="H1566" t="inlineStr">
@@ -51682,103 +51686,75 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr"/>
+      <c r="C1567" t="inlineStr"/>
       <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1567" t="inlineStr"/>
       <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H1567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G1567" t="inlineStr"/>
+      <c r="H1567" t="inlineStr"/>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1568" t="inlineStr"/>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="G1569" t="inlineStr"/>
       <c r="H1569" t="inlineStr">
         <is>
           <t>3</t>
@@ -51788,109 +51764,109 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
@@ -51900,31 +51876,31 @@
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -51934,53 +51910,57 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
@@ -51992,7 +51972,7 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -52002,113 +51982,121 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
       <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
@@ -52120,167 +52108,159 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1582" t="inlineStr"/>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
+      <c r="E1583" t="inlineStr"/>
       <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="G1583" t="inlineStr"/>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
         <is>
           <t>3</t>
@@ -52290,29 +52270,29 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
@@ -52324,29 +52304,29 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
@@ -52358,173 +52338,165 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -52536,33 +52508,29 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F1592" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52574,67 +52542,67 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F1593" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -52646,131 +52614,139 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr"/>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr"/>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>91.4</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
@@ -52782,127 +52758,135 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
-      <c r="F1599" t="inlineStr"/>
-      <c r="G1599" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1599" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="G1599" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr"/>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -52914,63 +52898,63 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -52982,31 +52966,27 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53016,169 +52996,165 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1609" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -53190,45 +53166,41 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1611" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
@@ -53238,35 +53210,31 @@
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1612" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
@@ -53276,35 +53244,31 @@
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1613" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
@@ -53314,28 +53278,24 @@
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53352,35 +53312,35 @@
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -53390,31 +53350,31 @@
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
@@ -53424,31 +53384,35 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
@@ -53458,13 +53422,25 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
-      <c r="E1618" t="inlineStr"/>
-      <c r="F1618" t="inlineStr"/>
-      <c r="G1618" t="inlineStr"/>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="H1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -53474,7 +53450,7 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
@@ -53484,13 +53460,25 @@
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
-      <c r="E1619" t="inlineStr"/>
-      <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr"/>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="H1619" t="inlineStr">
         <is>
           <t>3</t>
@@ -53500,43 +53488,71 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr"/>
-      <c r="C1620" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions FinalJAN</t>
+        </is>
+      </c>
       <c r="D1620" t="inlineStr"/>
-      <c r="E1620" t="inlineStr"/>
-      <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr"/>
-      <c r="H1620" t="inlineStr"/>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="H1620" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53548,27 +53564,31 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr"/>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
       <c r="H1622" t="inlineStr">
         <is>
           <t>3</t>
@@ -53578,27 +53598,31 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>109.1</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="H1623" t="inlineStr">
         <is>
           <t>3</t>
@@ -53608,25 +53632,21 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
@@ -53638,17 +53658,17 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
@@ -53664,79 +53684,71 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr"/>
+      <c r="C1626" t="inlineStr"/>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
-      <c r="H1626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1626" t="inlineStr"/>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr"/>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>75.8%</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr"/>
@@ -53750,53 +53762,53 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
@@ -53810,25 +53822,21 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>84.4</t>
-        </is>
-      </c>
+      <c r="E1631" t="inlineStr"/>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
@@ -53840,17 +53848,17 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
@@ -53866,31 +53874,27 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr"/>
-      <c r="G1633" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
           <t>2</t>
@@ -53900,31 +53904,27 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr"/>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -53934,53 +53934,53 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
@@ -53994,32 +53994,272 @@
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr"/>
+      <c r="H1637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>04:15 PM</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>EU Bond Auction</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr"/>
+      <c r="E1638" t="inlineStr"/>
+      <c r="F1638" t="inlineStr"/>
+      <c r="G1638" t="inlineStr"/>
+      <c r="H1638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>Unemployment Benefit ClaimsDEC</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>Jobseekers TotalDEC</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr"/>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1640" t="inlineStr"/>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>2875K</t>
+        </is>
+      </c>
+      <c r="H1640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>IPCA mid-month CPI MoMJAN</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr"/>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr"/>
+      <c r="H1641" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>IPCA mid-month CPI YoYJAN</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr"/>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr"/>
+      <c r="H1642" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr"/>
+      <c r="E1643" t="inlineStr">
+        <is>
           <t>$-0.133B</t>
         </is>
       </c>
-      <c r="F1637" t="inlineStr"/>
-      <c r="G1637" t="inlineStr">
+      <c r="F1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr">
         <is>
           <t>$ 3.9B</t>
         </is>
       </c>
-      <c r="H1637" t="inlineStr">
+      <c r="H1643" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr"/>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>Building Permits FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr"/>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="H1644" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr"/>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr"/>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1645" t="inlineStr"/>
+      <c r="G1645" t="inlineStr"/>
+      <c r="H1645" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1645"/>
+  <dimension ref="A1:H1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45951,7 +45951,11 @@
           <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
-      <c r="D1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>C$16.4B</t>
+        </is>
+      </c>
       <c r="E1385" t="inlineStr">
         <is>
           <t>C$21.55B</t>
@@ -45985,7 +45989,11 @@
           <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
-      <c r="D1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>C$17.85B</t>
+        </is>
+      </c>
       <c r="E1386" t="inlineStr">
         <is>
           <t>C$-2.65B</t>
@@ -46015,7 +46023,11 @@
           <t>Building Permits PrelDEC</t>
         </is>
       </c>
-      <c r="D1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>1.483M</t>
+        </is>
+      </c>
       <c r="E1387" t="inlineStr">
         <is>
           <t>1.493M</t>
@@ -46053,10 +46065,14 @@
           <t>Housing StartsDEC</t>
         </is>
       </c>
-      <c r="D1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>1.499M</t>
+        </is>
+      </c>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>1.294M</t>
         </is>
       </c>
       <c r="F1388" t="inlineStr">
@@ -46091,7 +46107,11 @@
           <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
-      <c r="D1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="E1389" t="inlineStr">
         <is>
           <t>5.2%</t>
@@ -46125,10 +46145,14 @@
           <t>Housing Starts MoMDEC</t>
         </is>
       </c>
-      <c r="D1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>15.8%</t>
+        </is>
+      </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="F1390" t="inlineStr"/>
@@ -49426,37 +49450,33 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
+      <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
@@ -49466,13 +49486,13 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
@@ -49486,109 +49506,109 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr"/>
-      <c r="C1497" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>4.686%</t>
+        </is>
+      </c>
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr"/>
+      <c r="H1497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr"/>
+      <c r="C1498" t="inlineStr"/>
       <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
+      <c r="E1498" t="inlineStr"/>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1498" t="inlineStr"/>
+      <c r="H1498" t="inlineStr"/>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="H1500" t="inlineStr">
         <is>
           <t>2</t>
@@ -49598,31 +49618,27 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1501" t="inlineStr"/>
       <c r="H1501" t="inlineStr">
         <is>
           <t>2</t>
@@ -49642,62 +49658,66 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1502" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1502" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>¥-53B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>¥ 100B</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -49714,28 +49734,28 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>¥-53B</t>
         </is>
       </c>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -49752,20 +49772,28 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>¥756.7B</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F1505" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -49782,25 +49810,17 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+          <t>¥756.7B</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr"/>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49820,17 +49840,25 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>¥313.3B</t>
-        </is>
-      </c>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="F1507" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G1507" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
@@ -49840,23 +49868,23 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>¥313.3B</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
@@ -49870,23 +49898,23 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>0.3544%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr"/>
@@ -49900,23 +49928,23 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.3544%</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
@@ -49940,21 +49968,17 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49974,19 +49998,19 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -50008,19 +50032,19 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -50032,29 +50056,29 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>SAR20.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>SAR21.8B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1514" t="inlineStr">
@@ -50076,17 +50100,21 @@
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>SAR92.8B</t>
+          <t>SAR20.8B</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
+      <c r="G1515" t="inlineStr">
+        <is>
+          <t>SAR21.8B</t>
+        </is>
+      </c>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -50106,13 +50134,13 @@
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>SAR72B</t>
+          <t>SAR92.8B</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
@@ -50126,31 +50154,27 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>SAR72B</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
           <t>3</t>
@@ -50165,58 +50189,58 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="H1519" t="inlineStr">
@@ -50238,31 +50262,31 @@
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
@@ -50272,17 +50296,21 @@
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>3-Year OAT Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>2.45%</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
           <t>3</t>
@@ -50302,11 +50330,15 @@
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>4-Year OAT Auction</t>
+          <t>3-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr"/>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
       <c r="H1522" t="inlineStr">
@@ -50328,15 +50360,11 @@
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>5-Year OAT Auction</t>
+          <t>4-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>2.74%</t>
-        </is>
-      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
@@ -50353,18 +50381,18 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>5-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>2.74%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
@@ -50378,21 +50406,25 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked OAT Auction</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr"/>
       <c r="H1525" t="inlineStr">
@@ -50414,7 +50446,7 @@
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>14-Year Index-Linked OAT Auction</t>
+          <t>10-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
@@ -50440,7 +50472,7 @@
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked OAT Auction</t>
+          <t>14-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
@@ -50466,7 +50498,7 @@
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>28-Year Index-Linked OAT Auction</t>
+          <t>15-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
@@ -50492,7 +50524,7 @@
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>28-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
@@ -50513,26 +50545,18 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>23.0%</t>
-        </is>
-      </c>
+      <c r="G1530" t="inlineStr"/>
       <c r="H1530" t="inlineStr">
         <is>
           <t>3</t>
@@ -50547,29 +50571,29 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>23.0%</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50586,23 +50610,19 @@
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
@@ -50624,24 +50644,28 @@
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr"/>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>46.5%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50653,29 +50677,29 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50692,19 +50716,19 @@
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
@@ -50716,61 +50740,61 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1537" t="inlineStr"/>
       <c r="H1537" t="inlineStr">
         <is>
           <t>3</t>
@@ -50790,19 +50814,19 @@
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
@@ -50824,19 +50848,19 @@
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50858,19 +50882,19 @@
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
@@ -50882,34 +50906,34 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50926,19 +50950,19 @@
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
@@ -50960,13 +50984,21 @@
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1543" t="inlineStr">
         <is>
           <t>2</t>
@@ -50986,24 +51018,16 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1544" t="inlineStr"/>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51015,29 +51039,29 @@
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>219K</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51054,24 +51078,24 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>1861K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51088,19 +51112,19 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>212.75K</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>213.0K</t>
+          <t>1861K</t>
         </is>
       </c>
       <c r="H1547" t="inlineStr">
@@ -51112,75 +51136,79 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1548" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
+          <t>212.75K</t>
+        </is>
+      </c>
+      <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>-14.7</t>
+          <t>213.0K</t>
         </is>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1549" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="G1549" t="inlineStr">
+        <is>
+          <t>-14.7</t>
+        </is>
+      </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
@@ -51190,20 +51218,20 @@
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51220,13 +51248,13 @@
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
@@ -51250,20 +51278,20 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51280,13 +51308,13 @@
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
@@ -51310,13 +51338,13 @@
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
@@ -51340,13 +51368,13 @@
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr"/>
@@ -51370,13 +51398,13 @@
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
@@ -51400,13 +51428,13 @@
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
@@ -51430,13 +51458,13 @@
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
@@ -51450,7 +51478,7 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
@@ -51460,13 +51488,13 @@
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr"/>
@@ -51490,13 +51518,13 @@
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr"/>
@@ -51510,23 +51538,23 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr"/>
@@ -51545,18 +51573,18 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
@@ -51580,13 +51608,13 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
@@ -51600,7 +51628,7 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
@@ -51610,13 +51638,13 @@
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
@@ -51628,21 +51656,25 @@
       </c>
     </row>
     <row r="1565">
-      <c r="A1565" t="inlineStr"/>
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>2.750%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
@@ -51657,104 +51689,100 @@
       <c r="A1566" t="inlineStr"/>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr"/>
       <c r="E1566" t="inlineStr">
         <is>
+          <t>2.750%</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr"/>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>Federal Tax RevenuesDEC</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr"/>
+      <c r="E1567" t="inlineStr">
+        <is>
           <t>BRL209.2B</t>
         </is>
       </c>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr">
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr">
         <is>
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1566" t="inlineStr">
+      <c r="H1567" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr"/>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
-      <c r="H1567" t="inlineStr"/>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>Economic Activity YoYNOV</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr"/>
+      <c r="C1568" t="inlineStr"/>
       <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1568" t="inlineStr"/>
       <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1568" t="inlineStr"/>
+      <c r="H1568" t="inlineStr"/>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
+      <c r="G1569" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1569" t="inlineStr">
         <is>
           <t>3</t>
@@ -51764,34 +51792,30 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="G1570" t="inlineStr"/>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51808,19 +51832,19 @@
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -51842,58 +51866,58 @@
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51910,28 +51934,24 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1574" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -51948,24 +51968,28 @@
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51982,19 +52006,19 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -52006,68 +52030,68 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52084,19 +52108,19 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
@@ -52118,24 +52142,24 @@
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52147,24 +52171,24 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
@@ -52176,38 +52200,34 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1582" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52224,80 +52244,84 @@
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr"/>
-      <c r="G1583" t="inlineStr"/>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1583" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1583" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr">
-        <is>
-          <t>18.55%</t>
-        </is>
-      </c>
+      <c r="E1584" t="inlineStr"/>
       <c r="F1584" t="inlineStr"/>
       <c r="G1584" t="inlineStr"/>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
+      <c r="G1585" t="inlineStr"/>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52314,19 +52338,19 @@
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
@@ -52348,19 +52372,19 @@
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -52377,29 +52401,29 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52416,19 +52440,19 @@
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52440,29 +52464,29 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -52474,34 +52498,34 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52518,19 +52542,19 @@
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -52552,62 +52576,58 @@
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52624,24 +52644,28 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F1595" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F1595" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52658,23 +52682,19 @@
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1596" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr"/>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
@@ -52686,29 +52706,33 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1597" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F1597" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
@@ -52730,23 +52754,19 @@
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr"/>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
@@ -52768,23 +52788,23 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -52796,34 +52816,38 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1600" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52840,19 +52864,19 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -52874,53 +52898,53 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>91.4</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -52932,31 +52956,23 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
+      <c r="G1604" t="inlineStr"/>
       <c r="H1604" t="inlineStr">
         <is>
           <t>2</t>
@@ -52966,27 +52982,31 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>91.4</t>
+        </is>
+      </c>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -52996,65 +53016,61 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1607" t="inlineStr"/>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53069,24 +53085,24 @@
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -53098,68 +53114,68 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53176,53 +53192,53 @@
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -53234,34 +53250,34 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53278,19 +53294,19 @@
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -53302,7 +53318,7 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
@@ -53312,35 +53328,31 @@
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -53350,19 +53362,19 @@
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -53384,28 +53396,28 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -53422,28 +53434,24 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53460,28 +53468,28 @@
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53498,23 +53506,23 @@
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -53536,23 +53544,23 @@
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53564,7 +53572,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53574,19 +53582,23 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53598,7 +53610,7 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
@@ -53608,19 +53620,23 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F1623" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1623" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53632,7 +53648,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53642,13 +53658,21 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
       <c r="H1624" t="inlineStr">
         <is>
           <t>3</t>
@@ -53658,7 +53682,7 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
@@ -53668,13 +53692,21 @@
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr"/>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53684,45 +53716,49 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr"/>
-      <c r="C1626" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
+        </is>
+      </c>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
-      <c r="H1626" t="inlineStr"/>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1627" t="inlineStr"/>
       <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1627" t="inlineStr"/>
       <c r="H1627" t="inlineStr">
         <is>
           <t>3</t>
@@ -53732,57 +53768,45 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr">
-        <is>
-          <t>Coincident Index FinalNOV</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr"/>
+      <c r="C1628" t="inlineStr"/>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
-      <c r="H1628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1628" t="inlineStr"/>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>109.1</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1629" t="inlineStr">
         <is>
           <t>3</t>
@@ -53797,18 +53821,18 @@
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
@@ -53827,16 +53851,20 @@
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr"/>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>109.1</t>
+        </is>
+      </c>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
@@ -53858,11 +53886,15 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr"/>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
@@ -53874,55 +53906,47 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1633" t="inlineStr"/>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1634" t="inlineStr"/>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
@@ -53934,53 +53958,53 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
@@ -54004,41 +54028,45 @@
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
       <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr"/>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>85.1</t>
+        </is>
+      </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
@@ -54050,65 +54078,53 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G1639" t="inlineStr"/>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>2935K</t>
-        </is>
-      </c>
+      <c r="E1640" t="inlineStr"/>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1640" t="inlineStr"/>
       <c r="H1640" t="inlineStr">
         <is>
           <t>3</t>
@@ -54118,57 +54134,65 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>2935K</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>2875K</t>
+        </is>
+      </c>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54183,85 +54207,333 @@
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>$ 3.9B</t>
-        </is>
-      </c>
+      <c r="G1643" t="inlineStr"/>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
-      <c r="A1644" t="inlineStr"/>
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1644" t="inlineStr"/>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1645">
-      <c r="A1645" t="inlineStr"/>
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
+          <t>$-0.133B</t>
+        </is>
+      </c>
+      <c r="F1645" t="inlineStr"/>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>$ 3.9B</t>
+        </is>
+      </c>
+      <c r="H1645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>Wholesale Sales MoM PrelDEC</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr"/>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1646" t="inlineStr"/>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>Chicago Fed National Activity IndexDEC</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr"/>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="F1647" t="inlineStr"/>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="H1647" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr"/>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr"/>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="H1648" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr"/>
+      <c r="E1649" t="inlineStr"/>
+      <c r="F1649" t="inlineStr"/>
+      <c r="G1649" t="inlineStr"/>
+      <c r="H1649" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr"/>
+      <c r="F1650" t="inlineStr"/>
+      <c r="G1650" t="inlineStr"/>
+      <c r="H1650" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr"/>
+      <c r="F1651" t="inlineStr"/>
+      <c r="G1651" t="inlineStr"/>
+      <c r="H1651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr"/>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>Building Permits FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="F1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="H1652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr"/>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr"/>
-      <c r="H1645" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="F1653" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="H1653" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1653"/>
+  <dimension ref="A1:H1655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46209,10 +46209,14 @@
           <t>Industrial Production MoMDEC</t>
         </is>
       </c>
-      <c r="D1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1392" t="inlineStr">
@@ -46247,10 +46251,14 @@
           <t>Capacity UtilizationDEC</t>
         </is>
       </c>
-      <c r="D1393" t="inlineStr"/>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F1393" t="inlineStr">
@@ -46285,10 +46293,14 @@
           <t>Industrial Production YoYDEC</t>
         </is>
       </c>
-      <c r="D1394" t="inlineStr"/>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1394" t="inlineStr"/>
@@ -46319,10 +46331,14 @@
           <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
-      <c r="D1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1395" t="inlineStr">
@@ -46357,10 +46373,14 @@
           <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
-      <c r="D1396" t="inlineStr"/>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr"/>
@@ -46949,7 +46969,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F1415" t="inlineStr"/>
+      <c r="F1415" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1415" t="inlineStr">
         <is>
           <t>1%</t>
@@ -47789,7 +47813,11 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="F1443" t="inlineStr"/>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1443" t="inlineStr">
         <is>
           <t>4.3%</t>
@@ -47823,10 +47851,14 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1444" t="inlineStr"/>
+      <c r="F1444" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47860,7 +47892,7 @@
       <c r="F1445" t="inlineStr"/>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>50.0K</t>
+          <t>40.0K</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47891,10 +47923,14 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1446" t="inlineStr"/>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
@@ -47925,10 +47961,14 @@
           <t>0.3K</t>
         </is>
       </c>
-      <c r="F1447" t="inlineStr"/>
+      <c r="F1447" t="inlineStr">
+        <is>
+          <t>10.3K</t>
+        </is>
+      </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>15.0K</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47962,7 +48002,7 @@
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
@@ -48095,7 +48135,11 @@
           <t>17</t>
         </is>
       </c>
-      <c r="F1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr">
+        <is>
+          <t>16.9</t>
+        </is>
+      </c>
       <c r="G1452" t="inlineStr">
         <is>
           <t>16</t>
@@ -48131,7 +48175,7 @@
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>15.4</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="G1453" t="inlineStr">
@@ -48333,7 +48377,11 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="F1459" t="inlineStr"/>
+      <c r="F1459" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="G1459" t="inlineStr">
         <is>
           <t>1.8%</t>
@@ -48401,7 +48449,11 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="F1461" t="inlineStr"/>
+      <c r="F1461" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G1461" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -48469,7 +48521,11 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="F1463" t="inlineStr"/>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G1463" t="inlineStr">
         <is>
           <t>2.6%</t>
@@ -48503,7 +48559,11 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="F1464" t="inlineStr"/>
+      <c r="F1464" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G1464" t="inlineStr">
         <is>
           <t>2.7%</t>
@@ -48761,7 +48821,11 @@
           <t>£-11.25B</t>
         </is>
       </c>
-      <c r="F1473" t="inlineStr"/>
+      <c r="F1473" t="inlineStr">
+        <is>
+          <t>£ -14.3B</t>
+        </is>
+      </c>
       <c r="G1473" t="inlineStr">
         <is>
           <t>£ -11.3B</t>
@@ -49745,7 +49809,7 @@
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>¥-53B</t>
+          <t>¥-55B</t>
         </is>
       </c>
       <c r="G1504" t="inlineStr">
@@ -50271,7 +50335,11 @@
           <t>97</t>
         </is>
       </c>
-      <c r="F1520" t="inlineStr"/>
+      <c r="F1520" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
       <c r="G1520" t="inlineStr">
         <is>
           <t>96</t>
@@ -50759,7 +50827,11 @@
           <t>-40</t>
         </is>
       </c>
-      <c r="F1536" t="inlineStr"/>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
       <c r="G1536" t="inlineStr">
         <is>
           <t>-25</t>
@@ -50959,7 +51031,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G1542" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -50993,7 +51069,11 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="F1543" t="inlineStr"/>
+      <c r="F1543" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1543" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -51087,7 +51167,11 @@
           <t>217K</t>
         </is>
       </c>
-      <c r="F1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
       <c r="G1546" t="inlineStr">
         <is>
           <t>219K</t>
@@ -52083,7 +52167,11 @@
           <t>-17</t>
         </is>
       </c>
-      <c r="F1578" t="inlineStr"/>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
       <c r="G1578" t="inlineStr">
         <is>
           <t>-23</t>
@@ -52117,7 +52205,11 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="F1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
       <c r="G1579" t="inlineStr">
         <is>
           <t>49.9</t>
@@ -52551,7 +52643,11 @@
           <t>41.9</t>
         </is>
       </c>
-      <c r="F1592" t="inlineStr"/>
+      <c r="F1592" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1592" t="inlineStr">
         <is>
           <t>42.2</t>
@@ -52585,7 +52681,11 @@
           <t>49.3</t>
         </is>
       </c>
-      <c r="F1593" t="inlineStr"/>
+      <c r="F1593" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="G1593" t="inlineStr">
         <is>
           <t>49.5</t>
@@ -52873,7 +52973,11 @@
           <t>47</t>
         </is>
       </c>
-      <c r="F1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr">
+        <is>
+          <t>47.1</t>
+        </is>
+      </c>
       <c r="G1601" t="inlineStr">
         <is>
           <t>47.2</t>
@@ -52907,7 +53011,11 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="F1602" t="inlineStr"/>
+      <c r="F1602" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
       <c r="G1602" t="inlineStr">
         <is>
           <t>51</t>
@@ -53035,7 +53143,11 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="F1606" t="inlineStr"/>
+      <c r="F1606" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="G1606" t="inlineStr">
         <is>
           <t>-11</t>
@@ -53201,7 +53313,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F1611" t="inlineStr"/>
+      <c r="F1611" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1611" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -54474,7 +54590,11 @@
       </c>
     </row>
     <row r="1652">
-      <c r="A1652" t="inlineStr"/>
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
       <c r="B1652" t="inlineStr">
         <is>
           <t>US</t>
@@ -54482,58 +54602,110 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
+          <t>New Home SalesDEC</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr"/>
+      <c r="F1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr"/>
+      <c r="H1652" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>New Home Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr"/>
+      <c r="F1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1653" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr"/>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="D1652" t="inlineStr"/>
-      <c r="E1652" t="inlineStr">
+      <c r="D1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr">
+      <c r="F1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr"/>
-      <c r="B1653" t="inlineStr">
+      <c r="H1654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr"/>
+      <c r="B1655" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="C1653" t="inlineStr">
+      <c r="C1655" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr">
+      <c r="D1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1653" t="inlineStr">
+      <c r="F1655" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1653" t="inlineStr">
+      <c r="G1655" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="H1655" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -48418,7 +48418,7 @@
       <c r="F1460" t="inlineStr"/>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1460" t="inlineStr">
@@ -48456,7 +48456,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="H1461" t="inlineStr">
@@ -48490,7 +48490,7 @@
       <c r="F1462" t="inlineStr"/>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
@@ -48528,7 +48528,7 @@
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1463" t="inlineStr">
@@ -48566,7 +48566,7 @@
       </c>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -49504,7 +49504,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -50253,58 +50257,62 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>81.5</t>
         </is>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>81.3</t>
-        </is>
-      </c>
-      <c r="F1519" t="inlineStr"/>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>81.5</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H1519" t="inlineStr">
@@ -50326,35 +50334,31 @@
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
@@ -50364,21 +50368,17 @@
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>3-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>2.45%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
           <t>3</t>
@@ -50398,13 +50398,13 @@
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>3-Year OAT Auction</t>
+          <t>4-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>2.45%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
@@ -50428,11 +50428,15 @@
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>4-Year OAT Auction</t>
+          <t>5-Year OAT Auction</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr"/>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
@@ -50449,18 +50453,18 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>5-Year OAT Auction</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>2.74%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
@@ -50474,23 +50478,23 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>10-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr"/>
@@ -50514,11 +50518,15 @@
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked OAT Auction</t>
+          <t>14-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr"/>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>1.13%</t>
+        </is>
+      </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="inlineStr"/>
       <c r="H1526" t="inlineStr">
@@ -50540,11 +50548,15 @@
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>14-Year Index-Linked OAT Auction</t>
+          <t>15-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
@@ -50566,11 +50578,15 @@
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>15-Year Index-Linked OAT Auction</t>
+          <t>28-Year Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr"/>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr"/>
       <c r="H1528" t="inlineStr">
@@ -50587,18 +50603,26 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>28-Year Index-Linked OAT Auction</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
       <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
       <c r="H1529" t="inlineStr">
         <is>
           <t>3</t>
@@ -50613,21 +50637,29 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
       <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50639,29 +50671,33 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr"/>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>21.6%</t>
-        </is>
-      </c>
-      <c r="F1531" t="inlineStr"/>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>23.0%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50678,24 +50714,24 @@
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr"/>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -50707,28 +50743,24 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>CBI Business Optimism IndexQ1</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr"/>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
@@ -50745,128 +50777,128 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>CBI Industrial Trends OrdersJAN</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F1534" t="inlineStr"/>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t>-34</t>
+        </is>
+      </c>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>46.5%</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>CBI Business Optimism IndexQ1</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr"/>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>$94.43B</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
+      <c r="G1535" t="inlineStr"/>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>CBI Industrial Trends OrdersJAN</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr">
-        <is>
-          <t>-34</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr"/>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>$94.43B</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1537" t="inlineStr">
         <is>
           <t>3</t>
@@ -50886,19 +50918,19 @@
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
@@ -50920,19 +50952,19 @@
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr"/>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -50944,68 +50976,76 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1540" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr"/>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>4.44%</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51022,25 +51062,13 @@
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr"/>
       <c r="H1542" t="inlineStr">
         <is>
           <t>2</t>
@@ -51060,28 +51088,24 @@
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1543" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51093,18 +51117,30 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F1544" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
       <c r="H1544" t="inlineStr">
         <is>
           <t>2</t>
@@ -51119,24 +51155,24 @@
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr"/>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1861K</t>
         </is>
       </c>
       <c r="H1545" t="inlineStr">
@@ -51158,69 +51194,69 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F1546" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
+          <t>212.75K</t>
+        </is>
+      </c>
+      <c r="F1546" t="inlineStr"/>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>219K</t>
+          <t>213.0K</t>
         </is>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>1859K</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr"/>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1547" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>1861K</t>
+          <t>-14.7</t>
         </is>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
@@ -51230,21 +51266,17 @@
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr"/>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>212.75K</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>213.0K</t>
-        </is>
-      </c>
+      <c r="G1548" t="inlineStr"/>
       <c r="H1548" t="inlineStr">
         <is>
           <t>3</t>
@@ -51254,35 +51286,27 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr"/>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>-14.7</t>
-        </is>
-      </c>
+          <t>-1.961M</t>
+        </is>
+      </c>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="inlineStr"/>
       <c r="H1549" t="inlineStr">
         <is>
           <t>2</t>
@@ -51292,7 +51316,7 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
@@ -51302,20 +51326,20 @@
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr"/>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr"/>
       <c r="G1550" t="inlineStr"/>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51332,20 +51356,20 @@
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr"/>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr"/>
       <c r="G1551" t="inlineStr"/>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51362,20 +51386,20 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr"/>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr"/>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51392,13 +51416,13 @@
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr"/>
@@ -51422,13 +51446,13 @@
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr"/>
@@ -51452,13 +51476,13 @@
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr"/>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr"/>
@@ -51482,13 +51506,13 @@
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr"/>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr"/>
@@ -51512,13 +51536,13 @@
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr"/>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr"/>
@@ -51532,7 +51556,7 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
@@ -51542,13 +51566,13 @@
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr"/>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr"/>
@@ -51562,7 +51586,7 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
@@ -51572,13 +51596,13 @@
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr"/>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr"/>
@@ -51592,23 +51616,23 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr"/>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr"/>
@@ -51622,7 +51646,7 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
@@ -51632,13 +51656,13 @@
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr"/>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr"/>
@@ -51657,18 +51681,18 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr"/>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr"/>
@@ -51682,7 +51706,7 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
@@ -51692,13 +51716,13 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr"/>
@@ -51710,25 +51734,21 @@
       </c>
     </row>
     <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A1564" t="inlineStr"/>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr"/>
@@ -51740,29 +51760,29 @@
       </c>
     </row>
     <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1565" t="inlineStr"/>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr"/>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>BRL209.2B</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr">
+        <is>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
       <c r="H1565" t="inlineStr">
         <is>
           <t>3</t>
@@ -51770,53 +51790,45 @@
       </c>
     </row>
     <row r="1566">
-      <c r="A1566" t="inlineStr"/>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr"/>
+      <c r="C1566" t="inlineStr"/>
       <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
+      <c r="E1566" t="inlineStr"/>
       <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1566" t="inlineStr"/>
     </row>
     <row r="1567">
-      <c r="A1567" t="inlineStr"/>
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1567" t="inlineStr"/>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>BRL209.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>BRL 255.1B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1567" t="inlineStr">
@@ -51828,78 +51840,98 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr"/>
-      <c r="C1568" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/22</t>
+        </is>
+      </c>
       <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>$6.83T</t>
+        </is>
+      </c>
       <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr"/>
+      <c r="H1568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1569" t="inlineStr"/>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D1570" t="inlineStr"/>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>$6.83T</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51916,92 +51948,96 @@
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1571" t="inlineStr"/>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Services PMI FinalJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1572" t="inlineStr"/>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FlashJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1573" t="inlineStr"/>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="F1573" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52018,24 +52054,24 @@
       </c>
       <c r="C1574" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
         </is>
       </c>
       <c r="D1574" t="inlineStr"/>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52052,69 +52088,69 @@
       </c>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1575" t="inlineStr"/>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1575" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>Inflation Rate Ex-Food and Energy YoYDEC</t>
+          <t>Gfk Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr"/>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr"/>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="F1576" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
@@ -52124,62 +52160,62 @@
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1577" t="inlineStr"/>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="F1577" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Gfk Consumer ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr"/>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F1578" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52196,28 +52232,24 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FlashJAN</t>
+          <t>Jibun Bank Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr"/>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52229,36 +52261,36 @@
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FlashJAN</t>
+          <t>URA Property Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
@@ -52268,119 +52300,115 @@
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FlashJAN</t>
+          <t>BoJ Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr"/>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1581" t="inlineStr"/>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="F1581" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>URA Property Index QoQ FinalQ4</t>
+          <t>BoJ Quarterly Outlook Report</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="E1582" t="inlineStr"/>
       <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1582" t="inlineStr"/>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>BoJ Interest Rate Decision</t>
+          <t>Foreign Direct Investment YoYQ4</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr"/>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>0.25%</t>
-        </is>
-      </c>
-      <c r="F1583" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>18.55%</t>
+        </is>
+      </c>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="inlineStr"/>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>BoJ Quarterly Outlook Report</t>
+          <t>HSBC Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr"/>
-      <c r="E1584" t="inlineStr"/>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
       <c r="F1584" t="inlineStr"/>
-      <c r="G1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr">
+        <is>
+          <t>58.8</t>
+        </is>
+      </c>
       <c r="H1584" t="inlineStr">
         <is>
           <t>2</t>
@@ -52390,30 +52418,34 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>Foreign Direct Investment YoYQ4</t>
+          <t>HSBC Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr"/>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr"/>
-      <c r="G1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52430,19 +52462,19 @@
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>HSBC Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr"/>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
@@ -52459,29 +52491,29 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr"/>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52493,58 +52525,58 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr"/>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr"/>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -52556,68 +52588,76 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr"/>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1591" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F1591" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52634,78 +52674,74 @@
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1592" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr"/>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
@@ -52716,18 +52752,18 @@
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr"/>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -52744,40 +52780,40 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
@@ -52788,13 +52824,13 @@
       <c r="D1596" t="inlineStr"/>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr"/>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
@@ -52806,33 +52842,33 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>HCOB Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr"/>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
@@ -52854,19 +52890,23 @@
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>HCOB Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr"/>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1598" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
@@ -52878,76 +52918,76 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr"/>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr"/>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -52964,95 +53004,79 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr"/>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F1601" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>ECB President Lagarde Speech</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr"/>
-      <c r="E1602" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1602" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="G1602" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="E1602" t="inlineStr"/>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="inlineStr"/>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>FGV Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -53064,23 +53088,35 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>CBI Distributive TradesJAN</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr"/>
-      <c r="E1604" t="inlineStr"/>
-      <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr"/>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="F1604" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="G1604" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="H1604" t="inlineStr">
         <is>
           <t>2</t>
@@ -53090,31 +53126,27 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr"/>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>$625.87B</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1605" t="inlineStr"/>
       <c r="H1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -53124,65 +53156,65 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr"/>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1606" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F1606" t="inlineStr"/>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr"/>
-      <c r="G1607" t="inlineStr"/>
+      <c r="G1607" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1607" t="inlineStr">
         <is>
           <t>3</t>
@@ -53197,24 +53229,24 @@
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1608" t="inlineStr"/>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -53226,68 +53258,72 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr"/>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1609" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1609" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr"/>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53304,57 +53340,53 @@
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1611" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr"/>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -53366,34 +53398,34 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53410,19 +53442,19 @@
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr"/>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -53434,7 +53466,7 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
@@ -53444,31 +53476,35 @@
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr"/>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -53478,19 +53514,19 @@
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -53512,28 +53548,28 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>4.15M</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -53550,24 +53586,28 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53584,28 +53624,28 @@
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr"/>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53622,23 +53662,23 @@
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -53660,23 +53700,23 @@
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr"/>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -53688,7 +53728,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53698,23 +53738,19 @@
       </c>
       <c r="C1622" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1622" t="inlineStr"/>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr"/>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -53726,7 +53762,7 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
@@ -53736,23 +53772,19 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr"/>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1623" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -53764,7 +53796,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -53774,21 +53806,13 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
         <is>
           <t>3</t>
@@ -53798,7 +53822,7 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
@@ -53808,21 +53832,13 @@
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
+      <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
         <is>
           <t>3</t>
@@ -53832,49 +53848,45 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr"/>
+      <c r="C1626" t="inlineStr"/>
       <c r="D1626" t="inlineStr"/>
       <c r="E1626" t="inlineStr"/>
       <c r="F1626" t="inlineStr"/>
       <c r="G1626" t="inlineStr"/>
-      <c r="H1626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1626" t="inlineStr"/>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr"/>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1627" t="inlineStr">
         <is>
           <t>3</t>
@@ -53884,45 +53896,57 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr"/>
-      <c r="C1628" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>Coincident Index FinalNOV</t>
+        </is>
+      </c>
       <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>116.8</t>
+        </is>
+      </c>
       <c r="F1628" t="inlineStr"/>
       <c r="G1628" t="inlineStr"/>
-      <c r="H1628" t="inlineStr"/>
+      <c r="H1628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr"/>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr">
         <is>
           <t>3</t>
@@ -53937,18 +53961,18 @@
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr"/>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr"/>
@@ -53967,20 +53991,16 @@
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr"/>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1631" t="inlineStr"/>
       <c r="F1631" t="inlineStr"/>
       <c r="G1631" t="inlineStr"/>
       <c r="H1631" t="inlineStr">
@@ -54002,15 +54022,11 @@
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr"/>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
+      <c r="E1632" t="inlineStr"/>
       <c r="F1632" t="inlineStr"/>
       <c r="G1632" t="inlineStr"/>
       <c r="H1632" t="inlineStr">
@@ -54022,47 +54038,55 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr"/>
-      <c r="E1633" t="inlineStr"/>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>99.1</t>
+        </is>
+      </c>
       <c r="F1633" t="inlineStr"/>
       <c r="G1633" t="inlineStr"/>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1634" t="inlineStr"/>
-      <c r="E1634" t="inlineStr"/>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>75.8%</t>
+        </is>
+      </c>
       <c r="F1634" t="inlineStr"/>
       <c r="G1634" t="inlineStr"/>
       <c r="H1634" t="inlineStr">
@@ -54074,53 +54098,53 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr"/>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr"/>
       <c r="G1635" t="inlineStr"/>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr"/>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>75.8%</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr"/>
@@ -54144,45 +54168,41 @@
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr"/>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr"/>
       <c r="G1637" t="inlineStr"/>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:15 PM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr"/>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>85.1</t>
-        </is>
-      </c>
+      <c r="E1638" t="inlineStr"/>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="inlineStr"/>
       <c r="H1638" t="inlineStr">
@@ -54194,53 +54214,65 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr"/>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>43.5K</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr"/>
-      <c r="G1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr"/>
-      <c r="E1640" t="inlineStr"/>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>2935K</t>
+        </is>
+      </c>
       <c r="F1640" t="inlineStr"/>
-      <c r="G1640" t="inlineStr"/>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>2875K</t>
+        </is>
+      </c>
       <c r="H1640" t="inlineStr">
         <is>
           <t>3</t>
@@ -54250,65 +54282,61 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>43.5K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr"/>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr"/>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1642" t="inlineStr"/>
       <c r="H1642" t="inlineStr">
         <is>
           <t>3</t>
@@ -54328,13 +54356,13 @@
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr"/>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr"/>
@@ -54353,59 +54381,63 @@
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr"/>
-      <c r="G1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>$ 3.9B</t>
+        </is>
+      </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -54417,63 +54449,63 @@
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr"/>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr"/>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -54485,26 +54517,18 @@
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr"/>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+      <c r="E1648" t="inlineStr"/>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1648" t="inlineStr"/>
       <c r="H1648" t="inlineStr">
         <is>
           <t>3</t>
@@ -54524,7 +54548,7 @@
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr"/>
@@ -54550,7 +54574,7 @@
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr"/>
@@ -54566,17 +54590,17 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr"/>
@@ -54585,7 +54609,7 @@
       <c r="G1651" t="inlineStr"/>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -54602,13 +54626,17 @@
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr"/>
       <c r="F1652" t="inlineStr"/>
-      <c r="G1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1652" t="inlineStr">
         <is>
           <t>2</t>
@@ -54618,7 +54646,7 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54628,17 +54656,17 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr"/>
-      <c r="E1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
       <c r="F1653" t="inlineStr"/>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1653" t="inlineStr"/>
       <c r="H1653" t="inlineStr">
         <is>
           <t>2</t>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1655"/>
+  <dimension ref="A1:H1657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54674,7 +54674,11 @@
       </c>
     </row>
     <row r="1654">
-      <c r="A1654" t="inlineStr"/>
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B1654" t="inlineStr">
         <is>
           <t>US</t>
@@ -54682,58 +54686,106 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr"/>
+      <c r="E1654" t="inlineStr"/>
+      <c r="F1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr"/>
+      <c r="H1654" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr"/>
+      <c r="F1655" t="inlineStr"/>
+      <c r="G1655" t="inlineStr"/>
+      <c r="H1655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr"/>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="D1654" t="inlineStr"/>
-      <c r="E1654" t="inlineStr">
+      <c r="D1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="F1654" t="inlineStr"/>
-      <c r="G1654" t="inlineStr">
+      <c r="F1656" t="inlineStr"/>
+      <c r="G1656" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr"/>
-      <c r="B1655" t="inlineStr">
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr"/>
+      <c r="B1657" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="C1655" t="inlineStr">
+      <c r="C1657" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="D1655" t="inlineStr"/>
-      <c r="E1655" t="inlineStr">
+      <c r="D1657" t="inlineStr"/>
+      <c r="E1657" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1655" t="inlineStr">
+      <c r="F1657" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1655" t="inlineStr">
+      <c r="G1657" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="H1657" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1657"/>
+  <dimension ref="A1:H1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46411,7 +46411,11 @@
           <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
-      <c r="D1397" t="inlineStr"/>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="E1397" t="inlineStr">
         <is>
           <t>480</t>
@@ -46441,7 +46445,11 @@
           <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
-      <c r="D1398" t="inlineStr"/>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="E1398" t="inlineStr">
         <is>
           <t>584</t>
@@ -53810,7 +53818,11 @@
         </is>
       </c>
       <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1624" t="inlineStr"/>
       <c r="G1624" t="inlineStr"/>
       <c r="H1624" t="inlineStr">
@@ -53836,7 +53848,11 @@
         </is>
       </c>
       <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr"/>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr"/>
       <c r="H1625" t="inlineStr">
@@ -54726,7 +54742,11 @@
       </c>
     </row>
     <row r="1656">
-      <c r="A1656" t="inlineStr"/>
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1656" t="inlineStr">
         <is>
           <t>US</t>
@@ -54734,56 +54754,104 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr"/>
+      <c r="F1656" t="inlineStr"/>
+      <c r="G1656" t="inlineStr"/>
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr"/>
+      <c r="E1657" t="inlineStr"/>
+      <c r="F1657" t="inlineStr"/>
+      <c r="G1657" t="inlineStr"/>
+      <c r="H1657" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr"/>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="D1656" t="inlineStr"/>
-      <c r="E1656" t="inlineStr">
+      <c r="D1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="F1656" t="inlineStr"/>
-      <c r="G1656" t="inlineStr">
+      <c r="F1658" t="inlineStr"/>
+      <c r="G1658" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1656" t="inlineStr">
+      <c r="H1658" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr"/>
-      <c r="B1657" t="inlineStr">
+    <row r="1659">
+      <c r="A1659" t="inlineStr"/>
+      <c r="B1659" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="C1657" t="inlineStr">
+      <c r="C1659" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="D1657" t="inlineStr"/>
-      <c r="E1657" t="inlineStr">
+      <c r="D1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="F1657" t="inlineStr">
+      <c r="F1659" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1657" t="inlineStr">
+      <c r="G1659" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1657" t="inlineStr">
+      <c r="H1659" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -46493,10 +46493,14 @@
           <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
-      <c r="D1400" t="inlineStr"/>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>$79B</t>
+        </is>
+      </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$159.1B</t>
         </is>
       </c>
       <c r="F1400" t="inlineStr">
@@ -46527,10 +46531,14 @@
           <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
-      <c r="D1401" t="inlineStr"/>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>$-15.8B</t>
+        </is>
+      </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>$92B</t>
         </is>
       </c>
       <c r="F1401" t="inlineStr"/>
@@ -46557,10 +46565,14 @@
           <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
-      <c r="D1402" t="inlineStr"/>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>$159.9B</t>
+        </is>
+      </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>$201.8B</t>
         </is>
       </c>
       <c r="F1402" t="inlineStr"/>
